--- a/Tesis/Resultados/Escalon/AV/ACOSTADO_Izquierdo_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/AV/ACOSTADO_Izquierdo_layer_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1212">
   <si>
     <t>W_i</t>
   </si>
@@ -31,436 +31,1732 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.5652191042900085]</t>
-  </si>
-  <si>
-    <t>[0.5936207175254822]</t>
-  </si>
-  <si>
-    <t>[0.6873961687088013]</t>
-  </si>
-  <si>
-    <t>[0.22859124839305878]</t>
-  </si>
-  <si>
-    <t>[0.4730471670627594]</t>
-  </si>
-  <si>
-    <t>[0.18801482021808624]</t>
-  </si>
-  <si>
-    <t>[-0.29809683561325073]</t>
-  </si>
-  <si>
-    <t>[-0.4877246618270874]</t>
-  </si>
-  <si>
-    <t>[0.45391562581062317]</t>
-  </si>
-  <si>
-    <t>[0.0693451389670372]</t>
-  </si>
-  <si>
-    <t>[0.15398919582366943]</t>
-  </si>
-  <si>
-    <t>[-0.049418941140174866]</t>
-  </si>
-  <si>
-    <t>[0.2596759498119354]</t>
-  </si>
-  <si>
-    <t>[0.4292660653591156]</t>
-  </si>
-  <si>
-    <t>[-0.33355388045310974]</t>
-  </si>
-  <si>
-    <t>[-0.16438375413417816]</t>
-  </si>
-  <si>
-    <t>[-0.4279945194721222]</t>
-  </si>
-  <si>
-    <t>[-0.13544674217700958]</t>
-  </si>
-  <si>
-    <t>[-0.057979024946689606]</t>
-  </si>
-  <si>
-    <t>[-0.3430534601211548]</t>
-  </si>
-  <si>
-    <t>[-0.1910850703716278]</t>
-  </si>
-  <si>
-    <t>[-0.15246674418449402]</t>
-  </si>
-  <si>
-    <t>[-0.2108093649148941]</t>
-  </si>
-  <si>
-    <t>[-0.1965787410736084]</t>
-  </si>
-  <si>
-    <t>[-0.3030143678188324]</t>
-  </si>
-  <si>
-    <t>[-0.5492095947265625]</t>
-  </si>
-  <si>
-    <t>[-0.5691788792610168]</t>
-  </si>
-  <si>
-    <t>[0.35677871108055115]</t>
-  </si>
-  <si>
-    <t>[-0.20282535254955292]</t>
-  </si>
-  <si>
-    <t>[0.1731206178665161]</t>
-  </si>
-  <si>
-    <t>[-0.15783751010894775]</t>
-  </si>
-  <si>
-    <t>[0.17324742674827576]</t>
-  </si>
-  <si>
-    <t>[-0.10845156759023666]</t>
-  </si>
-  <si>
-    <t>[0.3574069142341614]</t>
-  </si>
-  <si>
-    <t>[0.16685931384563446]</t>
-  </si>
-  <si>
-    <t>[0.022058870643377304]</t>
-  </si>
-  <si>
-    <t>[-0.32360509037971497]</t>
-  </si>
-  <si>
-    <t>[-0.45184269547462463]</t>
-  </si>
-  <si>
-    <t>[0.2610607445240021]</t>
-  </si>
-  <si>
-    <t>[0.3156619071960449]</t>
-  </si>
-  <si>
-    <t>[0.17498889565467834]</t>
-  </si>
-  <si>
-    <t>[0.13669632375240326]</t>
-  </si>
-  <si>
-    <t>[-0.48303815722465515]</t>
-  </si>
-  <si>
-    <t>[-0.15703551471233368]</t>
-  </si>
-  <si>
-    <t>[0.034652166068553925]</t>
-  </si>
-  <si>
-    <t>[-0.40438976883888245]</t>
-  </si>
-  <si>
-    <t>[0.14675788581371307]</t>
-  </si>
-  <si>
-    <t>[0.49661383032798767]</t>
-  </si>
-  <si>
-    <t>[-0.6052433848381042]</t>
-  </si>
-  <si>
-    <t>[-0.1263931542634964]</t>
-  </si>
-  <si>
-    <t>[-0.1605442464351654]</t>
-  </si>
-  <si>
-    <t>[0.0071354638785123825]</t>
-  </si>
-  <si>
-    <t>[-0.7024290561676025]</t>
-  </si>
-  <si>
-    <t>[-0.403351366519928]</t>
-  </si>
-  <si>
-    <t>[0.14400701224803925]</t>
-  </si>
-  <si>
-    <t>[0.4416247606277466]</t>
-  </si>
-  <si>
-    <t>[-0.4294096827507019]</t>
-  </si>
-  <si>
-    <t>[0.28195294737815857]</t>
-  </si>
-  <si>
-    <t>[0.45297062397003174]</t>
-  </si>
-  <si>
-    <t>[0.06911195814609528]</t>
-  </si>
-  <si>
-    <t>[0.2910607159137726]</t>
-  </si>
-  <si>
-    <t>[-0.3106289505958557]</t>
-  </si>
-  <si>
-    <t>[0.19207170605659485]</t>
-  </si>
-  <si>
-    <t>[-0.44278624653816223]</t>
-  </si>
-  <si>
-    <t>[0.5625737309455872]</t>
-  </si>
-  <si>
-    <t>[0.04447271302342415]</t>
-  </si>
-  <si>
-    <t>[-0.09926097840070724]</t>
-  </si>
-  <si>
-    <t>[-0.2887175381183624]</t>
-  </si>
-  <si>
-    <t>[-0.31149572134017944]</t>
-  </si>
-  <si>
-    <t>[-0.04683629050850868]</t>
-  </si>
-  <si>
-    <t>[-0.019208204001188278]</t>
-  </si>
-  <si>
-    <t>[0.5823096036911011]</t>
-  </si>
-  <si>
-    <t>[-0.3125602602958679]</t>
-  </si>
-  <si>
-    <t>[0.0961579754948616]</t>
-  </si>
-  <si>
-    <t>[-0.14452816545963287]</t>
-  </si>
-  <si>
-    <t>[0.15089143812656403]</t>
-  </si>
-  <si>
-    <t>[-0.32789719104766846]</t>
-  </si>
-  <si>
-    <t>[-0.3394347131252289]</t>
-  </si>
-  <si>
-    <t>[0.3341759741306305]</t>
-  </si>
-  <si>
-    <t>[0.41788598895072937]</t>
-  </si>
-  <si>
-    <t>[-0.5293290019035339]</t>
-  </si>
-  <si>
-    <t>[0.12971515953540802]</t>
-  </si>
-  <si>
-    <t>[0.4760848581790924]</t>
-  </si>
-  <si>
-    <t>[0.38537701964378357]</t>
-  </si>
-  <si>
-    <t>[0.34555840492248535]</t>
-  </si>
-  <si>
-    <t>[-0.03490496426820755]</t>
-  </si>
-  <si>
-    <t>[-0.1372532844543457]</t>
-  </si>
-  <si>
-    <t>[0.3622582256793976]</t>
-  </si>
-  <si>
-    <t>[0.47274425625801086]</t>
-  </si>
-  <si>
-    <t>[0.028787225484848022]</t>
-  </si>
-  <si>
-    <t>[-0.15220031142234802]</t>
-  </si>
-  <si>
-    <t>[-0.06690550595521927]</t>
-  </si>
-  <si>
-    <t>[-0.1610642522573471]</t>
-  </si>
-  <si>
-    <t>[-0.0240468829870224]</t>
-  </si>
-  <si>
-    <t>[0.3212536871433258]</t>
-  </si>
-  <si>
-    <t>[0.24661386013031006]</t>
-  </si>
-  <si>
-    <t>[-0.6139454245567322]</t>
-  </si>
-  <si>
-    <t>[-0.23583438992500305]</t>
-  </si>
-  <si>
-    <t>[-0.2808910012245178]</t>
-  </si>
-  <si>
-    <t>[0.49816837906837463]</t>
-  </si>
-  <si>
-    <t>[-0.3600563406944275]</t>
-  </si>
-  <si>
-    <t>[-0.6214821338653564]</t>
-  </si>
-  <si>
-    <t>[0.3234323561191559]</t>
-  </si>
-  <si>
-    <t>[0.16219645738601685]</t>
-  </si>
-  <si>
-    <t>[-0.3982338011264801]</t>
-  </si>
-  <si>
-    <t>[-0.13786965608596802]</t>
-  </si>
-  <si>
-    <t>[0.46454066038131714]</t>
-  </si>
-  <si>
-    <t>[0.3299686908721924]</t>
-  </si>
-  <si>
-    <t>[-0.1619090586900711]</t>
-  </si>
-  <si>
-    <t>[-0.32686933875083923]</t>
-  </si>
-  <si>
-    <t>[-0.14399243891239166]</t>
-  </si>
-  <si>
-    <t>[0.10542827099561691]</t>
-  </si>
-  <si>
-    <t>[-0.11043451726436615]</t>
-  </si>
-  <si>
-    <t>[0.3575103282928467]</t>
-  </si>
-  <si>
-    <t>[-0.04126465693116188]</t>
-  </si>
-  <si>
-    <t>[-0.1228170171380043]</t>
-  </si>
-  <si>
-    <t>[0.08834480494260788]</t>
-  </si>
-  <si>
-    <t>[-0.19810684025287628]</t>
-  </si>
-  <si>
-    <t>[0.31643033027648926]</t>
-  </si>
-  <si>
-    <t>[0.24982044100761414]</t>
-  </si>
-  <si>
-    <t>[-0.0896197184920311]</t>
-  </si>
-  <si>
-    <t>[0.00501596974208951]</t>
-  </si>
-  <si>
-    <t>[-0.4283424913883209]</t>
-  </si>
-  <si>
-    <t>[0.36293891072273254]</t>
-  </si>
-  <si>
-    <t>[-0.5126146674156189]</t>
-  </si>
-  <si>
-    <t>[-0.6506020426750183]</t>
-  </si>
-  <si>
-    <t>[0.020342661067843437]</t>
-  </si>
-  <si>
-    <t>[0.10401326417922974]</t>
-  </si>
-  <si>
-    <t>[0.0020306985825300217]</t>
-  </si>
-  <si>
-    <t>[-0.135057732462883]</t>
-  </si>
-  <si>
-    <t>[-0.03542431443929672]</t>
-  </si>
-  <si>
-    <t>[0.48515060544013977]</t>
-  </si>
-  <si>
-    <t>[-0.036432716995477676]</t>
-  </si>
-  <si>
-    <t>[-0.2153826355934143]</t>
-  </si>
-  <si>
-    <t>[0.5811141133308411]</t>
-  </si>
-  <si>
-    <t>[0.15904656052589417]</t>
-  </si>
-  <si>
-    <t>[0.29769638180732727]</t>
-  </si>
-  <si>
-    <t>[-0.22900734841823578]</t>
-  </si>
-  <si>
-    <t>[0.26245418190956116]</t>
-  </si>
-  <si>
-    <t>[-0.17328426241874695]</t>
-  </si>
-  <si>
-    <t>[0.07177325338125229]</t>
-  </si>
-  <si>
-    <t>[-0.08062686026096344]</t>
-  </si>
-  <si>
-    <t>[-0.11248317360877991]</t>
-  </si>
-  <si>
-    <t>[0.22782911360263824]</t>
+    <t>[-0.45474761724472046]</t>
+  </si>
+  <si>
+    <t>[-0.01718606799840927]</t>
+  </si>
+  <si>
+    <t>[-0.4028574824333191]</t>
+  </si>
+  <si>
+    <t>[0.08045903593301773]</t>
+  </si>
+  <si>
+    <t>[-0.49913808703422546]</t>
+  </si>
+  <si>
+    <t>[-0.08894531428813934]</t>
+  </si>
+  <si>
+    <t>[0.38036370277404785]</t>
+  </si>
+  <si>
+    <t>[0.15028035640716553]</t>
+  </si>
+  <si>
+    <t>[-0.05832716077566147]</t>
+  </si>
+  <si>
+    <t>[-0.21650055050849915]</t>
+  </si>
+  <si>
+    <t>[0.12917472422122955]</t>
+  </si>
+  <si>
+    <t>[-0.18222346901893616]</t>
+  </si>
+  <si>
+    <t>[-0.110121950507164]</t>
+  </si>
+  <si>
+    <t>[0.04158853366971016]</t>
+  </si>
+  <si>
+    <t>[0.008856878615915775]</t>
+  </si>
+  <si>
+    <t>[0.10298465937376022]</t>
+  </si>
+  <si>
+    <t>[-0.35764285922050476]</t>
+  </si>
+  <si>
+    <t>[-0.15068413317203522]</t>
+  </si>
+  <si>
+    <t>[-0.44660335779190063]</t>
+  </si>
+  <si>
+    <t>[-0.27692779898643494]</t>
+  </si>
+  <si>
+    <t>[0.25160813331604004]</t>
+  </si>
+  <si>
+    <t>[-0.09571134299039841]</t>
+  </si>
+  <si>
+    <t>[-0.36525869369506836]</t>
+  </si>
+  <si>
+    <t>[-0.11575011909008026]</t>
+  </si>
+  <si>
+    <t>[0.16177237033843994]</t>
+  </si>
+  <si>
+    <t>[0.33803677558898926]</t>
+  </si>
+  <si>
+    <t>[0.435710072517395]</t>
+  </si>
+  <si>
+    <t>[0.17030605673789978]</t>
+  </si>
+  <si>
+    <t>[0.36005377769470215]</t>
+  </si>
+  <si>
+    <t>[0.35282883048057556]</t>
+  </si>
+  <si>
+    <t>[0.3749542534351349]</t>
+  </si>
+  <si>
+    <t>[-0.06728938221931458]</t>
+  </si>
+  <si>
+    <t>[-0.36231106519699097]</t>
+  </si>
+  <si>
+    <t>[0.4268229901790619]</t>
+  </si>
+  <si>
+    <t>[0.26754826307296753]</t>
+  </si>
+  <si>
+    <t>[0.08825777471065521]</t>
+  </si>
+  <si>
+    <t>[0.2064083218574524]</t>
+  </si>
+  <si>
+    <t>[0.19416260719299316]</t>
+  </si>
+  <si>
+    <t>[0.16442573070526123]</t>
+  </si>
+  <si>
+    <t>[0.131398007273674]</t>
+  </si>
+  <si>
+    <t>[-0.2298440784215927]</t>
+  </si>
+  <si>
+    <t>[-0.02960803173482418]</t>
+  </si>
+  <si>
+    <t>[0.44319862127304077]</t>
+  </si>
+  <si>
+    <t>[-0.18137961626052856]</t>
+  </si>
+  <si>
+    <t>[-0.33761993050575256]</t>
+  </si>
+  <si>
+    <t>[0.1742355078458786]</t>
+  </si>
+  <si>
+    <t>[-0.5004666447639465]</t>
+  </si>
+  <si>
+    <t>[0.24537795782089233]</t>
+  </si>
+  <si>
+    <t>[-0.03203277662396431]</t>
+  </si>
+  <si>
+    <t>[-0.08089971542358398]</t>
+  </si>
+  <si>
+    <t>[-0.026948658749461174]</t>
+  </si>
+  <si>
+    <t>[0.10008114576339722]</t>
+  </si>
+  <si>
+    <t>[0.3069166839122772]</t>
+  </si>
+  <si>
+    <t>[0.009088783524930477]</t>
+  </si>
+  <si>
+    <t>[-0.44761279225349426]</t>
+  </si>
+  <si>
+    <t>[0.16541485488414764]</t>
+  </si>
+  <si>
+    <t>[-0.4142204821109772]</t>
+  </si>
+  <si>
+    <t>[0.004941348917782307]</t>
+  </si>
+  <si>
+    <t>[0.006084292661398649]</t>
+  </si>
+  <si>
+    <t>[0.10577107965946198]</t>
+  </si>
+  <si>
+    <t>[0.12008190155029297]</t>
+  </si>
+  <si>
+    <t>[-0.21981187164783478]</t>
+  </si>
+  <si>
+    <t>[0.3305284380912781]</t>
+  </si>
+  <si>
+    <t>[0.23579415678977966]</t>
+  </si>
+  <si>
+    <t>[-0.08381453901529312]</t>
+  </si>
+  <si>
+    <t>[0.01117506343871355]</t>
+  </si>
+  <si>
+    <t>[0.2889523506164551]</t>
+  </si>
+  <si>
+    <t>[0.12817279994487762]</t>
+  </si>
+  <si>
+    <t>[-0.4181383550167084]</t>
+  </si>
+  <si>
+    <t>[-0.1922684609889984]</t>
+  </si>
+  <si>
+    <t>[0.4128609299659729]</t>
+  </si>
+  <si>
+    <t>[-0.007846474647521973]</t>
+  </si>
+  <si>
+    <t>[-0.36684444546699524]</t>
+  </si>
+  <si>
+    <t>[-0.07907676696777344]</t>
+  </si>
+  <si>
+    <t>[-0.273903489112854]</t>
+  </si>
+  <si>
+    <t>[-0.30427148938179016]</t>
+  </si>
+  <si>
+    <t>[-0.36694273352622986]</t>
+  </si>
+  <si>
+    <t>[-0.35193055868148804]</t>
+  </si>
+  <si>
+    <t>[-0.31168684363365173]</t>
+  </si>
+  <si>
+    <t>[0.18677271902561188]</t>
+  </si>
+  <si>
+    <t>[0.45215240120887756]</t>
+  </si>
+  <si>
+    <t>[-0.11252104490995407]</t>
+  </si>
+  <si>
+    <t>[-0.12698352336883545]</t>
+  </si>
+  <si>
+    <t>[0.12545715272426605]</t>
+  </si>
+  <si>
+    <t>[-0.31051215529441833]</t>
+  </si>
+  <si>
+    <t>[-0.0041482700034976006]</t>
+  </si>
+  <si>
+    <t>[-0.16025659441947937]</t>
+  </si>
+  <si>
+    <t>[-0.29539912939071655]</t>
+  </si>
+  <si>
+    <t>[-0.10517438501119614]</t>
+  </si>
+  <si>
+    <t>[-0.2219100147485733]</t>
+  </si>
+  <si>
+    <t>[-0.4964281916618347]</t>
+  </si>
+  <si>
+    <t>[0.3121216595172882]</t>
+  </si>
+  <si>
+    <t>[0.3346322178840637]</t>
+  </si>
+  <si>
+    <t>[-0.20246084034442902]</t>
+  </si>
+  <si>
+    <t>[0.10031268745660782]</t>
+  </si>
+  <si>
+    <t>[-0.18799558281898499]</t>
+  </si>
+  <si>
+    <t>[0.09763159602880478]</t>
+  </si>
+  <si>
+    <t>[-0.23997020721435547]</t>
+  </si>
+  <si>
+    <t>[0.228951096534729]</t>
+  </si>
+  <si>
+    <t>[0.2855144441127777]</t>
+  </si>
+  <si>
+    <t>[0.39788973331451416]</t>
+  </si>
+  <si>
+    <t>[-0.4062732756137848]</t>
+  </si>
+  <si>
+    <t>[-0.05396447330713272]</t>
+  </si>
+  <si>
+    <t>[0.03358137607574463]</t>
+  </si>
+  <si>
+    <t>[-0.36981260776519775]</t>
+  </si>
+  <si>
+    <t>[-0.07910293340682983]</t>
+  </si>
+  <si>
+    <t>[0.24285808205604553]</t>
+  </si>
+  <si>
+    <t>[-0.020043309777975082]</t>
+  </si>
+  <si>
+    <t>[0.11697398126125336]</t>
+  </si>
+  <si>
+    <t>[-0.05602309852838516]</t>
+  </si>
+  <si>
+    <t>[0.36031171679496765]</t>
+  </si>
+  <si>
+    <t>[0.17334222793579102]</t>
+  </si>
+  <si>
+    <t>[-0.12009891122579575]</t>
+  </si>
+  <si>
+    <t>[-0.18771502375602722]</t>
+  </si>
+  <si>
+    <t>[0.15618085861206055]</t>
+  </si>
+  <si>
+    <t>[0.16130536794662476]</t>
+  </si>
+  <si>
+    <t>[-0.10489331930875778]</t>
+  </si>
+  <si>
+    <t>[0.08789530396461487]</t>
+  </si>
+  <si>
+    <t>[0.29300057888031006]</t>
+  </si>
+  <si>
+    <t>[-0.2522018551826477]</t>
+  </si>
+  <si>
+    <t>[-0.41574087738990784]</t>
+  </si>
+  <si>
+    <t>[0.04266661778092384]</t>
+  </si>
+  <si>
+    <t>[0.05368877947330475]</t>
+  </si>
+  <si>
+    <t>[-0.34438854455947876]</t>
+  </si>
+  <si>
+    <t>[-0.07774124294519424]</t>
+  </si>
+  <si>
+    <t>[-0.17824816703796387]</t>
+  </si>
+  <si>
+    <t>[0.1919938623905182]</t>
+  </si>
+  <si>
+    <t>[0.09657520800828934]</t>
+  </si>
+  <si>
+    <t>[0.1978667974472046]</t>
+  </si>
+  <si>
+    <t>[0.13794969022274017]</t>
+  </si>
+  <si>
+    <t>[-0.34702619910240173]</t>
+  </si>
+  <si>
+    <t>[0.26218122243881226]</t>
+  </si>
+  <si>
+    <t>[-0.4887904226779938]</t>
+  </si>
+  <si>
+    <t>[-0.43318361043930054]</t>
+  </si>
+  <si>
+    <t>[-0.26117271184921265]</t>
+  </si>
+  <si>
+    <t>[-0.09095042943954468]</t>
+  </si>
+  <si>
+    <t>[0.4048800766468048]</t>
+  </si>
+  <si>
+    <t>[-0.20706428587436676]</t>
+  </si>
+  <si>
+    <t>[-0.2654663622379303]</t>
+  </si>
+  <si>
+    <t>[0.1511845588684082]</t>
+  </si>
+  <si>
+    <t>[0.12416192144155502]</t>
+  </si>
+  <si>
+    <t>[-0.40526434779167175]</t>
+  </si>
+  <si>
+    <t>[0.20512093603610992]</t>
+  </si>
+  <si>
+    <t>[-0.29324886202812195]</t>
+  </si>
+  <si>
+    <t>[-0.3015502393245697]</t>
+  </si>
+  <si>
+    <t>[0.1964128017425537]</t>
+  </si>
+  <si>
+    <t>[-0.2137465476989746]</t>
+  </si>
+  <si>
+    <t>[-0.28819891810417175]</t>
+  </si>
+  <si>
+    <t>[0.030108647421002388]</t>
+  </si>
+  <si>
+    <t>[0.43013226985931396]</t>
+  </si>
+  <si>
+    <t>[0.08181419223546982]</t>
+  </si>
+  <si>
+    <t>[-0.017869051545858383]</t>
+  </si>
+  <si>
+    <t>[0.21870259940624237]</t>
+  </si>
+  <si>
+    <t>[0.09642291814088821]</t>
+  </si>
+  <si>
+    <t>[0.08536703139543533]</t>
+  </si>
+  <si>
+    <t>[-0.13975471258163452]</t>
+  </si>
+  <si>
+    <t>[0.39734020829200745]</t>
+  </si>
+  <si>
+    <t>[0.014045163057744503]</t>
+  </si>
+  <si>
+    <t>[-0.0799647644162178]</t>
+  </si>
+  <si>
+    <t>[-0.10175328701734543]</t>
+  </si>
+  <si>
+    <t>[-0.30187153816223145]</t>
+  </si>
+  <si>
+    <t>[0.1644568145275116]</t>
+  </si>
+  <si>
+    <t>[-0.04771118983626366]</t>
+  </si>
+  <si>
+    <t>[-0.06844820827245712]</t>
+  </si>
+  <si>
+    <t>[0.4679848551750183]</t>
+  </si>
+  <si>
+    <t>[0.20258009433746338]</t>
+  </si>
+  <si>
+    <t>[-0.18473654985427856]</t>
+  </si>
+  <si>
+    <t>[0.10511015355587006]</t>
+  </si>
+  <si>
+    <t>[-0.13166861236095428]</t>
+  </si>
+  <si>
+    <t>[0.343229740858078]</t>
+  </si>
+  <si>
+    <t>[-0.035787682980298996]</t>
+  </si>
+  <si>
+    <t>[0.20866180956363678]</t>
+  </si>
+  <si>
+    <t>[0.04712741822004318]</t>
+  </si>
+  <si>
+    <t>[-0.10848817229270935]</t>
+  </si>
+  <si>
+    <t>[0.10167639702558517]</t>
+  </si>
+  <si>
+    <t>[-0.23486870527267456]</t>
+  </si>
+  <si>
+    <t>[0.09689799696207047]</t>
+  </si>
+  <si>
+    <t>[-0.17467010021209717]</t>
+  </si>
+  <si>
+    <t>[0.04228288307785988]</t>
+  </si>
+  <si>
+    <t>[0.11419438570737839]</t>
+  </si>
+  <si>
+    <t>[0.32153668999671936]</t>
+  </si>
+  <si>
+    <t>[0.030023526400327682]</t>
+  </si>
+  <si>
+    <t>[0.1783011108636856]</t>
+  </si>
+  <si>
+    <t>[0.2262035310268402]</t>
+  </si>
+  <si>
+    <t>[-0.33508792519569397]</t>
+  </si>
+  <si>
+    <t>[0.05101154372096062]</t>
+  </si>
+  <si>
+    <t>[0.19017328321933746]</t>
+  </si>
+  <si>
+    <t>[-0.22509175539016724]</t>
+  </si>
+  <si>
+    <t>[0.14414843916893005]</t>
+  </si>
+  <si>
+    <t>[0.3057161867618561]</t>
+  </si>
+  <si>
+    <t>[-0.44058048725128174]</t>
+  </si>
+  <si>
+    <t>[0.24635417759418488]</t>
+  </si>
+  <si>
+    <t>[-0.25550103187561035]</t>
+  </si>
+  <si>
+    <t>[-0.24166184663772583]</t>
+  </si>
+  <si>
+    <t>[-0.06190865486860275]</t>
+  </si>
+  <si>
+    <t>[-0.29765674471855164]</t>
+  </si>
+  <si>
+    <t>[-0.1432473063468933]</t>
+  </si>
+  <si>
+    <t>[-0.0712314173579216]</t>
+  </si>
+  <si>
+    <t>[0.46017104387283325]</t>
+  </si>
+  <si>
+    <t>[-0.1850394904613495]</t>
+  </si>
+  <si>
+    <t>[0.3389827311038971]</t>
+  </si>
+  <si>
+    <t>[0.33885082602500916]</t>
+  </si>
+  <si>
+    <t>[-0.23983265459537506]</t>
+  </si>
+  <si>
+    <t>[0.3102499544620514]</t>
+  </si>
+  <si>
+    <t>[0.42793214321136475]</t>
+  </si>
+  <si>
+    <t>[-0.12557852268218994]</t>
+  </si>
+  <si>
+    <t>[-0.14141245186328888]</t>
+  </si>
+  <si>
+    <t>[0.07501835376024246]</t>
+  </si>
+  <si>
+    <t>[-0.16493354737758636]</t>
+  </si>
+  <si>
+    <t>[-0.2600175440311432]</t>
+  </si>
+  <si>
+    <t>[0.012220881879329681]</t>
+  </si>
+  <si>
+    <t>[-0.0032740081660449505]</t>
+  </si>
+  <si>
+    <t>[-0.005948383826762438]</t>
+  </si>
+  <si>
+    <t>[-0.1350058764219284]</t>
+  </si>
+  <si>
+    <t>[0.03366994857788086]</t>
+  </si>
+  <si>
+    <t>[-0.1700771301984787]</t>
+  </si>
+  <si>
+    <t>[0.2558659613132477]</t>
+  </si>
+  <si>
+    <t>[0.38663920760154724]</t>
+  </si>
+  <si>
+    <t>[-0.036443088203668594]</t>
+  </si>
+  <si>
+    <t>[-0.20784182846546173]</t>
+  </si>
+  <si>
+    <t>[-0.07777688652276993]</t>
+  </si>
+  <si>
+    <t>[0.2533392906188965]</t>
+  </si>
+  <si>
+    <t>[0.15765464305877686]</t>
+  </si>
+  <si>
+    <t>[0.2160930037498474]</t>
+  </si>
+  <si>
+    <t>[-0.060610268265008926]</t>
+  </si>
+  <si>
+    <t>[-0.010079366154968739]</t>
+  </si>
+  <si>
+    <t>[0.46243274211883545]</t>
+  </si>
+  <si>
+    <t>[-0.18375453352928162]</t>
+  </si>
+  <si>
+    <t>[0.4693174958229065]</t>
+  </si>
+  <si>
+    <t>[0.36378249526023865]</t>
+  </si>
+  <si>
+    <t>[0.49661189317703247]</t>
+  </si>
+  <si>
+    <t>[-0.18329516053199768]</t>
+  </si>
+  <si>
+    <t>[-0.49007856845855713]</t>
+  </si>
+  <si>
+    <t>[0.08443761616945267]</t>
+  </si>
+  <si>
+    <t>[0.12834271788597107]</t>
+  </si>
+  <si>
+    <t>[0.3347393572330475]</t>
+  </si>
+  <si>
+    <t>[-0.40449008345603943]</t>
+  </si>
+  <si>
+    <t>[-0.12941575050354004]</t>
+  </si>
+  <si>
+    <t>[-0.4759390354156494]</t>
+  </si>
+  <si>
+    <t>[-0.16144366562366486]</t>
+  </si>
+  <si>
+    <t>[-0.38429391384124756]</t>
+  </si>
+  <si>
+    <t>[0.30467545986175537]</t>
+  </si>
+  <si>
+    <t>[-0.25794461369514465]</t>
+  </si>
+  <si>
+    <t>[-0.22808338701725006]</t>
+  </si>
+  <si>
+    <t>[-0.2172817885875702]</t>
+  </si>
+  <si>
+    <t>[-0.07617247104644775]</t>
+  </si>
+  <si>
+    <t>[0.2069188356399536]</t>
+  </si>
+  <si>
+    <t>[-0.33981987833976746]</t>
+  </si>
+  <si>
+    <t>[0.3652557134628296]</t>
+  </si>
+  <si>
+    <t>[-0.1300271898508072]</t>
+  </si>
+  <si>
+    <t>[-0.024377144873142242]</t>
+  </si>
+  <si>
+    <t>[-0.2935865521430969]</t>
+  </si>
+  <si>
+    <t>[0.35935160517692566]</t>
+  </si>
+  <si>
+    <t>[-0.18714258074760437]</t>
+  </si>
+  <si>
+    <t>[-0.4121169447898865]</t>
+  </si>
+  <si>
+    <t>[-0.32480618357658386]</t>
+  </si>
+  <si>
+    <t>[0.03634653612971306]</t>
+  </si>
+  <si>
+    <t>[0.3616848587989807]</t>
+  </si>
+  <si>
+    <t>[-0.1599920690059662]</t>
+  </si>
+  <si>
+    <t>[-0.12506119906902313]</t>
+  </si>
+  <si>
+    <t>[0.4587784707546234]</t>
+  </si>
+  <si>
+    <t>[0.36245185136795044]</t>
+  </si>
+  <si>
+    <t>[-0.452335387468338]</t>
+  </si>
+  <si>
+    <t>[-0.006176275666803122]</t>
+  </si>
+  <si>
+    <t>[0.1815371811389923]</t>
+  </si>
+  <si>
+    <t>[0.04587303474545479]</t>
+  </si>
+  <si>
+    <t>[0.47663241624832153]</t>
+  </si>
+  <si>
+    <t>[0.3204379975795746]</t>
+  </si>
+  <si>
+    <t>[0.24648961424827576]</t>
+  </si>
+  <si>
+    <t>[0.20837032794952393]</t>
+  </si>
+  <si>
+    <t>[0.14634884893894196]</t>
+  </si>
+  <si>
+    <t>[0.19067195057868958]</t>
+  </si>
+  <si>
+    <t>[-0.34882330894470215]</t>
+  </si>
+  <si>
+    <t>[0.1483316421508789]</t>
+  </si>
+  <si>
+    <t>[0.16092899441719055]</t>
+  </si>
+  <si>
+    <t>[-0.2994445860385895]</t>
+  </si>
+  <si>
+    <t>[0.2735888659954071]</t>
+  </si>
+  <si>
+    <t>[0.3959251046180725]</t>
+  </si>
+  <si>
+    <t>[0.25772279500961304]</t>
+  </si>
+  <si>
+    <t>[0.2493654191493988]</t>
+  </si>
+  <si>
+    <t>[-0.4748951196670532]</t>
+  </si>
+  <si>
+    <t>[0.10384205728769302]</t>
+  </si>
+  <si>
+    <t>[0.1446610540151596]</t>
+  </si>
+  <si>
+    <t>[-0.17799516022205353]</t>
+  </si>
+  <si>
+    <t>[-0.5079435706138611]</t>
+  </si>
+  <si>
+    <t>[0.3339231312274933]</t>
+  </si>
+  <si>
+    <t>[-0.4540592432022095]</t>
+  </si>
+  <si>
+    <t>[0.4604721665382385]</t>
+  </si>
+  <si>
+    <t>[-0.10155391693115234]</t>
+  </si>
+  <si>
+    <t>[-0.07425932586193085]</t>
+  </si>
+  <si>
+    <t>[0.04065091907978058]</t>
+  </si>
+  <si>
+    <t>[0.18344642221927643]</t>
+  </si>
+  <si>
+    <t>[-0.09680648148059845]</t>
+  </si>
+  <si>
+    <t>[0.07064813375473022]</t>
+  </si>
+  <si>
+    <t>[-0.010134098120033741]</t>
+  </si>
+  <si>
+    <t>[-0.035279519855976105]</t>
+  </si>
+  <si>
+    <t>[-0.0027367710135877132]</t>
+  </si>
+  <si>
+    <t>[0.20873016119003296]</t>
+  </si>
+  <si>
+    <t>[0.33314239978790283]</t>
+  </si>
+  <si>
+    <t>[-0.17341062426567078]</t>
+  </si>
+  <si>
+    <t>[-0.17653527855873108]</t>
+  </si>
+  <si>
+    <t>[-0.013614419847726822]</t>
+  </si>
+  <si>
+    <t>[-0.1620561182498932]</t>
+  </si>
+  <si>
+    <t>[0.28570282459259033]</t>
+  </si>
+  <si>
+    <t>[0.18089830875396729]</t>
+  </si>
+  <si>
+    <t>[-0.11693845689296722]</t>
+  </si>
+  <si>
+    <t>[0.256211519241333]</t>
+  </si>
+  <si>
+    <t>[0.04820536449551582]</t>
+  </si>
+  <si>
+    <t>[-0.004144461825489998]</t>
+  </si>
+  <si>
+    <t>[0.07030139863491058]</t>
+  </si>
+  <si>
+    <t>[0.33219975233078003]</t>
+  </si>
+  <si>
+    <t>[0.2418949007987976]</t>
+  </si>
+  <si>
+    <t>[-0.23986412584781647]</t>
+  </si>
+  <si>
+    <t>[0.186916783452034]</t>
+  </si>
+  <si>
+    <t>[-0.4295981824398041]</t>
+  </si>
+  <si>
+    <t>[-0.014975846745073795]</t>
+  </si>
+  <si>
+    <t>[-0.043827515095472336]</t>
+  </si>
+  <si>
+    <t>[-0.3708091378211975]</t>
+  </si>
+  <si>
+    <t>[0.17793092131614685]</t>
+  </si>
+  <si>
+    <t>[0.06662869453430176]</t>
+  </si>
+  <si>
+    <t>[-0.0659957230091095]</t>
+  </si>
+  <si>
+    <t>[-0.18703946471214294]</t>
+  </si>
+  <si>
+    <t>[-0.17038840055465698]</t>
+  </si>
+  <si>
+    <t>[0.34809866547584534]</t>
+  </si>
+  <si>
+    <t>[-0.3716903626918793]</t>
+  </si>
+  <si>
+    <t>[-0.239579439163208]</t>
+  </si>
+  <si>
+    <t>[-0.34053418040275574]</t>
+  </si>
+  <si>
+    <t>[-0.05956517159938812]</t>
+  </si>
+  <si>
+    <t>[-0.041519466787576675]</t>
+  </si>
+  <si>
+    <t>[-0.17971645295619965]</t>
+  </si>
+  <si>
+    <t>[0.02824036404490471]</t>
+  </si>
+  <si>
+    <t>[-0.0972704365849495]</t>
+  </si>
+  <si>
+    <t>[0.2654668986797333]</t>
+  </si>
+  <si>
+    <t>[0.15963028371334076]</t>
+  </si>
+  <si>
+    <t>[0.2667348384857178]</t>
+  </si>
+  <si>
+    <t>[-0.24250200390815735]</t>
+  </si>
+  <si>
+    <t>[0.2669486403465271]</t>
+  </si>
+  <si>
+    <t>[-0.15013223886489868]</t>
+  </si>
+  <si>
+    <t>[-0.022586161270737648]</t>
+  </si>
+  <si>
+    <t>[0.313063383102417]</t>
+  </si>
+  <si>
+    <t>[0.149794340133667]</t>
+  </si>
+  <si>
+    <t>[-0.14330439269542694]</t>
+  </si>
+  <si>
+    <t>[0.11939327418804169]</t>
+  </si>
+  <si>
+    <t>[0.3080883026123047]</t>
+  </si>
+  <si>
+    <t>[-0.4081321060657501]</t>
+  </si>
+  <si>
+    <t>[-0.08523418009281158]</t>
+  </si>
+  <si>
+    <t>[0.24616533517837524]</t>
+  </si>
+  <si>
+    <t>[0.23518860340118408]</t>
+  </si>
+  <si>
+    <t>[-0.3273133933544159]</t>
+  </si>
+  <si>
+    <t>[-0.1577470600605011]</t>
+  </si>
+  <si>
+    <t>[0.16132286190986633]</t>
+  </si>
+  <si>
+    <t>[-0.15122683346271515]</t>
+  </si>
+  <si>
+    <t>[0.19785074889659882]</t>
+  </si>
+  <si>
+    <t>[-0.31300050020217896]</t>
+  </si>
+  <si>
+    <t>[0.0051089501939713955]</t>
+  </si>
+  <si>
+    <t>[0.23053249716758728]</t>
+  </si>
+  <si>
+    <t>[-0.13151229918003082]</t>
+  </si>
+  <si>
+    <t>[-0.39019322395324707]</t>
+  </si>
+  <si>
+    <t>[0.3172609508037567]</t>
+  </si>
+  <si>
+    <t>[0.3254201114177704]</t>
+  </si>
+  <si>
+    <t>[-0.27393144369125366]</t>
+  </si>
+  <si>
+    <t>[0.1377863734960556]</t>
+  </si>
+  <si>
+    <t>[-0.06535407900810242]</t>
+  </si>
+  <si>
+    <t>[-0.20142918825149536]</t>
+  </si>
+  <si>
+    <t>[0.06922818720340729]</t>
+  </si>
+  <si>
+    <t>[0.015230424702167511]</t>
+  </si>
+  <si>
+    <t>[0.0001346896606264636]</t>
+  </si>
+  <si>
+    <t>[0.0958404392004013]</t>
+  </si>
+  <si>
+    <t>[0.28399795293807983]</t>
+  </si>
+  <si>
+    <t>[-0.15149930119514465]</t>
+  </si>
+  <si>
+    <t>[-0.05529605597257614]</t>
+  </si>
+  <si>
+    <t>[0.10628129541873932]</t>
+  </si>
+  <si>
+    <t>[-0.3442825675010681]</t>
+  </si>
+  <si>
+    <t>[-0.29482582211494446]</t>
+  </si>
+  <si>
+    <t>[-0.22375503182411194]</t>
+  </si>
+  <si>
+    <t>[-0.3598492741584778]</t>
+  </si>
+  <si>
+    <t>[0.22608454525470734]</t>
+  </si>
+  <si>
+    <t>[-0.3447936177253723]</t>
+  </si>
+  <si>
+    <t>[-0.4080504775047302]</t>
+  </si>
+  <si>
+    <t>[0.19196678698062897]</t>
+  </si>
+  <si>
+    <t>[0.34598228335380554]</t>
+  </si>
+  <si>
+    <t>[-0.4187251031398773]</t>
+  </si>
+  <si>
+    <t>[0.41671907901763916]</t>
+  </si>
+  <si>
+    <t>[-0.03941628709435463]</t>
+  </si>
+  <si>
+    <t>[0.24352383613586426]</t>
+  </si>
+  <si>
+    <t>[0.27137190103530884]</t>
+  </si>
+  <si>
+    <t>[-0.4149496257305145]</t>
+  </si>
+  <si>
+    <t>[0.2501853406429291]</t>
+  </si>
+  <si>
+    <t>[-0.0018546301871538162]</t>
+  </si>
+  <si>
+    <t>[0.2694425582885742]</t>
+  </si>
+  <si>
+    <t>[0.11830794811248779]</t>
+  </si>
+  <si>
+    <t>[0.2998848855495453]</t>
+  </si>
+  <si>
+    <t>[-0.1438600718975067]</t>
+  </si>
+  <si>
+    <t>[0.10372570902109146]</t>
+  </si>
+  <si>
+    <t>[0.06421885639429092]</t>
+  </si>
+  <si>
+    <t>[0.28323277831077576]</t>
+  </si>
+  <si>
+    <t>[-0.08352115005254745]</t>
+  </si>
+  <si>
+    <t>[0.33907371759414673]</t>
+  </si>
+  <si>
+    <t>[-0.26289963722229004]</t>
+  </si>
+  <si>
+    <t>[-0.18953916430473328]</t>
+  </si>
+  <si>
+    <t>[-0.23265722393989563]</t>
+  </si>
+  <si>
+    <t>[-0.09282704442739487]</t>
+  </si>
+  <si>
+    <t>[-0.22661539912223816]</t>
+  </si>
+  <si>
+    <t>[0.14665378630161285]</t>
+  </si>
+  <si>
+    <t>[-0.17356465756893158]</t>
+  </si>
+  <si>
+    <t>[0.20477645099163055]</t>
+  </si>
+  <si>
+    <t>[-0.23247620463371277]</t>
+  </si>
+  <si>
+    <t>[0.24601005017757416]</t>
+  </si>
+  <si>
+    <t>[0.41282323002815247]</t>
+  </si>
+  <si>
+    <t>[0.16428625583648682]</t>
+  </si>
+  <si>
+    <t>[0.1791718751192093]</t>
+  </si>
+  <si>
+    <t>[-0.27096328139305115]</t>
+  </si>
+  <si>
+    <t>[0.4307021498680115]</t>
+  </si>
+  <si>
+    <t>[-0.14648008346557617]</t>
+  </si>
+  <si>
+    <t>[0.24436978995800018]</t>
+  </si>
+  <si>
+    <t>[-0.06107446178793907]</t>
+  </si>
+  <si>
+    <t>[-0.0036870825570076704]</t>
+  </si>
+  <si>
+    <t>[0.107106052339077]</t>
+  </si>
+  <si>
+    <t>[-0.055212683975696564]</t>
+  </si>
+  <si>
+    <t>[0.047295402735471725]</t>
+  </si>
+  <si>
+    <t>[0.43938806653022766]</t>
+  </si>
+  <si>
+    <t>[0.050079092383384705]</t>
+  </si>
+  <si>
+    <t>[0.06695671379566193]</t>
+  </si>
+  <si>
+    <t>[0.25411227345466614]</t>
+  </si>
+  <si>
+    <t>[-0.3315587639808655]</t>
+  </si>
+  <si>
+    <t>[0.030398979783058167]</t>
+  </si>
+  <si>
+    <t>[0.39754387736320496]</t>
+  </si>
+  <si>
+    <t>[0.1355976164340973]</t>
+  </si>
+  <si>
+    <t>[-0.2852996587753296]</t>
+  </si>
+  <si>
+    <t>[-0.11377410590648651]</t>
+  </si>
+  <si>
+    <t>[-0.13080334663391113]</t>
+  </si>
+  <si>
+    <t>[0.11291312426328659]</t>
+  </si>
+  <si>
+    <t>[0.035607341676950455]</t>
+  </si>
+  <si>
+    <t>[-0.37612053751945496]</t>
+  </si>
+  <si>
+    <t>[0.2180556207895279]</t>
+  </si>
+  <si>
+    <t>[-0.06236639246344566]</t>
+  </si>
+  <si>
+    <t>[-0.01135855820029974]</t>
+  </si>
+  <si>
+    <t>[-0.2377682328224182]</t>
+  </si>
+  <si>
+    <t>[-0.07941774278879166]</t>
+  </si>
+  <si>
+    <t>[-0.24611058831214905]</t>
+  </si>
+  <si>
+    <t>[-0.34137779474258423]</t>
+  </si>
+  <si>
+    <t>[0.09055723994970322]</t>
+  </si>
+  <si>
+    <t>[0.025084473192691803]</t>
+  </si>
+  <si>
+    <t>[-0.10550833493471146]</t>
+  </si>
+  <si>
+    <t>[-0.24143832921981812]</t>
+  </si>
+  <si>
+    <t>[-0.3105107843875885]</t>
+  </si>
+  <si>
+    <t>[0.07654932886362076]</t>
+  </si>
+  <si>
+    <t>[-0.2153845727443695]</t>
+  </si>
+  <si>
+    <t>[0.31231337785720825]</t>
+  </si>
+  <si>
+    <t>[0.05066557228565216]</t>
+  </si>
+  <si>
+    <t>[-0.12301186472177505]</t>
+  </si>
+  <si>
+    <t>[-0.06790707260370255]</t>
+  </si>
+  <si>
+    <t>[-0.31371039152145386]</t>
+  </si>
+  <si>
+    <t>[-0.16701750457286835]</t>
+  </si>
+  <si>
+    <t>[0.1397610604763031]</t>
+  </si>
+  <si>
+    <t>[-0.2309872806072235]</t>
+  </si>
+  <si>
+    <t>[-0.44560369849205017]</t>
+  </si>
+  <si>
+    <t>[-0.3328426480293274]</t>
+  </si>
+  <si>
+    <t>[-0.3554578125476837]</t>
+  </si>
+  <si>
+    <t>[-0.023136921226978302]</t>
+  </si>
+  <si>
+    <t>[0.1262507289648056]</t>
+  </si>
+  <si>
+    <t>[0.12285339832305908]</t>
+  </si>
+  <si>
+    <t>[0.04626362770795822]</t>
+  </si>
+  <si>
+    <t>[-0.07373419404029846]</t>
+  </si>
+  <si>
+    <t>[0.03006836399435997]</t>
+  </si>
+  <si>
+    <t>[-0.18411701917648315]</t>
+  </si>
+  <si>
+    <t>[-0.20826031267642975]</t>
+  </si>
+  <si>
+    <t>[0.35067540407180786]</t>
+  </si>
+  <si>
+    <t>[-0.3582164943218231]</t>
+  </si>
+  <si>
+    <t>[-0.08804336190223694]</t>
+  </si>
+  <si>
+    <t>[-0.14426398277282715]</t>
+  </si>
+  <si>
+    <t>[-0.13475753366947174]</t>
+  </si>
+  <si>
+    <t>[-0.008011076599359512]</t>
+  </si>
+  <si>
+    <t>[-0.003931837156414986]</t>
+  </si>
+  <si>
+    <t>[-0.08271259069442749]</t>
+  </si>
+  <si>
+    <t>[-0.23489005863666534]</t>
+  </si>
+  <si>
+    <t>[0.4228355586528778]</t>
+  </si>
+  <si>
+    <t>[-0.16480854153633118]</t>
+  </si>
+  <si>
+    <t>[0.05052609369158745]</t>
+  </si>
+  <si>
+    <t>[-0.21515929698944092]</t>
+  </si>
+  <si>
+    <t>[-0.061178937554359436]</t>
+  </si>
+  <si>
+    <t>[-0.04685530439019203]</t>
+  </si>
+  <si>
+    <t>[0.2161097675561905]</t>
+  </si>
+  <si>
+    <t>[-0.22073903679847717]</t>
+  </si>
+  <si>
+    <t>[-0.13599613308906555]</t>
+  </si>
+  <si>
+    <t>[0.05893341451883316]</t>
+  </si>
+  <si>
+    <t>[-0.39126893877983093]</t>
+  </si>
+  <si>
+    <t>[0.049854449927806854]</t>
+  </si>
+  <si>
+    <t>[-0.19580453634262085]</t>
+  </si>
+  <si>
+    <t>[-0.16337835788726807]</t>
+  </si>
+  <si>
+    <t>[-0.12805984914302826]</t>
+  </si>
+  <si>
+    <t>[0.27103376388549805]</t>
+  </si>
+  <si>
+    <t>[0.14305193722248077]</t>
+  </si>
+  <si>
+    <t>[-0.36463022232055664]</t>
+  </si>
+  <si>
+    <t>[0.297850638628006]</t>
+  </si>
+  <si>
+    <t>[-0.2523055374622345]</t>
+  </si>
+  <si>
+    <t>[0.3651885688304901]</t>
+  </si>
+  <si>
+    <t>[0.21875707805156708]</t>
+  </si>
+  <si>
+    <t>[0.39518994092941284]</t>
+  </si>
+  <si>
+    <t>[-0.19714611768722534]</t>
+  </si>
+  <si>
+    <t>[-0.08407745510339737]</t>
+  </si>
+  <si>
+    <t>[-0.27895399928092957]</t>
+  </si>
+  <si>
+    <t>[0.13176670670509338]</t>
+  </si>
+  <si>
+    <t>[-0.1034356951713562]</t>
+  </si>
+  <si>
+    <t>[0.11351615935564041]</t>
+  </si>
+  <si>
+    <t>[-0.2531234920024872]</t>
+  </si>
+  <si>
+    <t>[0.07479388266801834]</t>
+  </si>
+  <si>
+    <t>[0.22184622287750244]</t>
+  </si>
+  <si>
+    <t>[0.07570880651473999]</t>
+  </si>
+  <si>
+    <t>[-0.13998627662658691]</t>
+  </si>
+  <si>
+    <t>[-0.04678044468164444]</t>
+  </si>
+  <si>
+    <t>[-0.14377176761627197]</t>
+  </si>
+  <si>
+    <t>[0.3265157639980316]</t>
+  </si>
+  <si>
+    <t>[0.07913754880428314]</t>
+  </si>
+  <si>
+    <t>[-0.30256420373916626]</t>
+  </si>
+  <si>
+    <t>[-0.1499604731798172]</t>
+  </si>
+  <si>
+    <t>[-0.2449234277009964]</t>
+  </si>
+  <si>
+    <t>[-0.11793944239616394]</t>
+  </si>
+  <si>
+    <t>[-0.22769922018051147]</t>
+  </si>
+  <si>
+    <t>[-0.38568899035453796]</t>
+  </si>
+  <si>
+    <t>[0.4370688498020172]</t>
+  </si>
+  <si>
+    <t>[-0.19191548228263855]</t>
+  </si>
+  <si>
+    <t>[-0.24759729206562042]</t>
+  </si>
+  <si>
+    <t>[-0.2423110157251358]</t>
+  </si>
+  <si>
+    <t>[0.258262574672699]</t>
+  </si>
+  <si>
+    <t>[0.08166823536157608]</t>
+  </si>
+  <si>
+    <t>[0.46839627623558044]</t>
+  </si>
+  <si>
+    <t>[-0.4218732416629791]</t>
+  </si>
+  <si>
+    <t>[0.42597445845603943]</t>
+  </si>
+  <si>
+    <t>[-0.0741012915968895]</t>
+  </si>
+  <si>
+    <t>[0.1795693188905716]</t>
+  </si>
+  <si>
+    <t>[-0.09711502492427826]</t>
+  </si>
+  <si>
+    <t>[0.11813303083181381]</t>
+  </si>
+  <si>
+    <t>[0.021678224205970764]</t>
+  </si>
+  <si>
+    <t>[-0.3958203196525574]</t>
+  </si>
+  <si>
+    <t>[0.047857191413640976]</t>
+  </si>
+  <si>
+    <t>[-0.20902840793132782]</t>
+  </si>
+  <si>
+    <t>[-0.2269090712070465]</t>
+  </si>
+  <si>
+    <t>[0.3255370557308197]</t>
+  </si>
+  <si>
+    <t>[0.012612972408533096]</t>
+  </si>
+  <si>
+    <t>[0.03744374215602875]</t>
+  </si>
+  <si>
+    <t>[-0.2002531737089157]</t>
+  </si>
+  <si>
+    <t>[0.425594300031662]</t>
+  </si>
+  <si>
+    <t>[-0.14413337409496307]</t>
+  </si>
+  <si>
+    <t>[0.37821903824806213]</t>
+  </si>
+  <si>
+    <t>[0.12113412469625473]</t>
+  </si>
+  <si>
+    <t>[0.1204972043633461]</t>
+  </si>
+  <si>
+    <t>[0.14949850738048553]</t>
+  </si>
+  <si>
+    <t>[-0.1442510336637497]</t>
+  </si>
+  <si>
+    <t>[-0.04456767067313194]</t>
+  </si>
+  <si>
+    <t>[0.10409944504499435]</t>
+  </si>
+  <si>
+    <t>[0.28383687138557434]</t>
+  </si>
+  <si>
+    <t>[-0.42476174235343933]</t>
+  </si>
+  <si>
+    <t>[-0.22764930129051208]</t>
+  </si>
+  <si>
+    <t>[0.023771541193127632]</t>
+  </si>
+  <si>
+    <t>[0.13786680996418]</t>
+  </si>
+  <si>
+    <t>[-0.46872448921203613]</t>
+  </si>
+  <si>
+    <t>[-0.00221970584243536]</t>
+  </si>
+  <si>
+    <t>[-0.43587034940719604]</t>
+  </si>
+  <si>
+    <t>[0.11660359799861908]</t>
+  </si>
+  <si>
+    <t>[0.12035662680864334]</t>
+  </si>
+  <si>
+    <t>[-0.3658064305782318]</t>
+  </si>
+  <si>
+    <t>[0.013262956403195858]</t>
+  </si>
+  <si>
+    <t>[0.03608236461877823]</t>
+  </si>
+  <si>
+    <t>[-0.2415442168712616]</t>
+  </si>
+  <si>
+    <t>[-0.18540529906749725]</t>
+  </si>
+  <si>
+    <t>[-0.3861370384693146]</t>
+  </si>
+  <si>
+    <t>[0.2104978859424591]</t>
+  </si>
+  <si>
+    <t>[0.19814974069595337]</t>
+  </si>
+  <si>
+    <t>[-0.11848218739032745]</t>
+  </si>
+  <si>
+    <t>[-0.368831992149353]</t>
+  </si>
+  <si>
+    <t>[-0.20980161428451538]</t>
+  </si>
+  <si>
+    <t>[0.48175063729286194]</t>
+  </si>
+  <si>
+    <t>[0.01036002766340971]</t>
+  </si>
+  <si>
+    <t>[0.35299986600875854]</t>
+  </si>
+  <si>
+    <t>[-0.19429655373096466]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -475,436 +1771,1732 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.41924795508384705]</t>
-  </si>
-  <si>
-    <t>[-0.44282349944114685]</t>
-  </si>
-  <si>
-    <t>[-0.16193360090255737]</t>
-  </si>
-  <si>
-    <t>[0.30290770530700684]</t>
-  </si>
-  <si>
-    <t>[0.0359371043741703]</t>
-  </si>
-  <si>
-    <t>[-0.2199590504169464]</t>
-  </si>
-  <si>
-    <t>[0.18377585709095]</t>
-  </si>
-  <si>
-    <t>[-0.1936577558517456]</t>
-  </si>
-  <si>
-    <t>[0.15048997104167938]</t>
-  </si>
-  <si>
-    <t>[0.023142395541071892]</t>
-  </si>
-  <si>
-    <t>[0.25959479808807373]</t>
-  </si>
-  <si>
-    <t>[0.08069325983524323]</t>
-  </si>
-  <si>
-    <t>[-0.3477596044540405]</t>
-  </si>
-  <si>
-    <t>[-0.09460577368736267]</t>
-  </si>
-  <si>
-    <t>[0.10521569848060608]</t>
-  </si>
-  <si>
-    <t>[-0.119084432721138]</t>
-  </si>
-  <si>
-    <t>[0.3154259920120239]</t>
-  </si>
-  <si>
-    <t>[-0.04845911264419556]</t>
-  </si>
-  <si>
-    <t>[0.1951783299446106]</t>
-  </si>
-  <si>
-    <t>[-0.14207004010677338]</t>
-  </si>
-  <si>
-    <t>[0.4057407081127167]</t>
-  </si>
-  <si>
-    <t>[-0.4570889174938202]</t>
-  </si>
-  <si>
-    <t>[0.21459044516086578]</t>
-  </si>
-  <si>
-    <t>[-0.06372669339179993]</t>
-  </si>
-  <si>
-    <t>[0.0807313472032547]</t>
-  </si>
-  <si>
-    <t>[0.2073049396276474]</t>
-  </si>
-  <si>
-    <t>[0.7902427911758423]</t>
-  </si>
-  <si>
-    <t>[-0.20548440515995026]</t>
-  </si>
-  <si>
-    <t>[0.15696030855178833]</t>
-  </si>
-  <si>
-    <t>[0.050668295472860336]</t>
-  </si>
-  <si>
-    <t>[-0.3122538924217224]</t>
-  </si>
-  <si>
-    <t>[0.10205533355474472]</t>
-  </si>
-  <si>
-    <t>[-0.2359328418970108]</t>
-  </si>
-  <si>
-    <t>[0.2555248439311981]</t>
-  </si>
-  <si>
-    <t>[-0.15662232041358948]</t>
-  </si>
-  <si>
-    <t>[-0.07278791069984436]</t>
-  </si>
-  <si>
-    <t>[-0.1621459722518921]</t>
-  </si>
-  <si>
-    <t>[-0.06201571971178055]</t>
-  </si>
-  <si>
-    <t>[0.25613561272621155]</t>
-  </si>
-  <si>
-    <t>[0.20385508239269257]</t>
-  </si>
-  <si>
-    <t>[0.17101196944713593]</t>
-  </si>
-  <si>
-    <t>[-0.1523900330066681]</t>
-  </si>
-  <si>
-    <t>[-0.007690648548305035]</t>
-  </si>
-  <si>
-    <t>[-0.07759019732475281]</t>
-  </si>
-  <si>
-    <t>[-0.053903110325336456]</t>
-  </si>
-  <si>
-    <t>[0.15387392044067383]</t>
-  </si>
-  <si>
-    <t>[-0.6159859299659729]</t>
-  </si>
-  <si>
-    <t>[-0.2252902090549469]</t>
-  </si>
-  <si>
-    <t>[0.5463798642158508]</t>
-  </si>
-  <si>
-    <t>[0.12254359573125839]</t>
-  </si>
-  <si>
-    <t>[0.505167543888092]</t>
-  </si>
-  <si>
-    <t>[0.22034212946891785]</t>
-  </si>
-  <si>
-    <t>[0.7077471613883972]</t>
-  </si>
-  <si>
-    <t>[-0.1459803283214569]</t>
-  </si>
-  <si>
-    <t>[-0.3347087800502777]</t>
-  </si>
-  <si>
-    <t>[-0.08797349780797958]</t>
-  </si>
-  <si>
-    <t>[-0.10933147370815277]</t>
-  </si>
-  <si>
-    <t>[0.16553190350532532]</t>
-  </si>
-  <si>
-    <t>[-0.1335805207490921]</t>
-  </si>
-  <si>
-    <t>[-0.11858262866735458]</t>
-  </si>
-  <si>
-    <t>[-0.0753856971859932]</t>
-  </si>
-  <si>
-    <t>[0.15387947857379913]</t>
-  </si>
-  <si>
-    <t>[-0.40902572870254517]</t>
-  </si>
-  <si>
-    <t>[0.004345557652413845]</t>
-  </si>
-  <si>
-    <t>[-0.3242839276790619]</t>
-  </si>
-  <si>
-    <t>[-0.13656958937644958]</t>
-  </si>
-  <si>
-    <t>[-0.03693331405520439]</t>
-  </si>
-  <si>
-    <t>[0.2624525725841522]</t>
-  </si>
-  <si>
-    <t>[-0.11499989032745361]</t>
-  </si>
-  <si>
-    <t>[0.0547180213034153]</t>
-  </si>
-  <si>
-    <t>[-0.33095619082450867]</t>
-  </si>
-  <si>
-    <t>[0.10137242078781128]</t>
-  </si>
-  <si>
-    <t>[-0.14259840548038483]</t>
-  </si>
-  <si>
-    <t>[-0.1943850964307785]</t>
-  </si>
-  <si>
-    <t>[0.16418269276618958]</t>
-  </si>
-  <si>
-    <t>[-0.3914327919483185]</t>
-  </si>
-  <si>
-    <t>[-0.06054932251572609]</t>
-  </si>
-  <si>
-    <t>[-0.06251559406518936]</t>
-  </si>
-  <si>
-    <t>[-0.13611377775669098]</t>
-  </si>
-  <si>
-    <t>[-0.45895230770111084]</t>
-  </si>
-  <si>
-    <t>[0.3707221448421478]</t>
-  </si>
-  <si>
-    <t>[0.0063890572637319565]</t>
-  </si>
-  <si>
-    <t>[0.2599606215953827]</t>
-  </si>
-  <si>
-    <t>[0.014574851840734482]</t>
-  </si>
-  <si>
-    <t>[-0.14747928082942963]</t>
-  </si>
-  <si>
-    <t>[0.10083766281604767]</t>
-  </si>
-  <si>
-    <t>[-0.08436187356710434]</t>
-  </si>
-  <si>
-    <t>[0.05138824135065079]</t>
-  </si>
-  <si>
-    <t>[-0.2956274747848511]</t>
-  </si>
-  <si>
-    <t>[0.21482165157794952]</t>
-  </si>
-  <si>
-    <t>[0.0010283150477334857]</t>
-  </si>
-  <si>
-    <t>[0.22740134596824646]</t>
-  </si>
-  <si>
-    <t>[-0.059340983629226685]</t>
-  </si>
-  <si>
-    <t>[0.05182861164212227]</t>
-  </si>
-  <si>
-    <t>[-0.4087824523448944]</t>
-  </si>
-  <si>
-    <t>[0.1050974503159523]</t>
-  </si>
-  <si>
-    <t>[-0.04268050566315651]</t>
-  </si>
-  <si>
-    <t>[-0.006497995462268591]</t>
-  </si>
-  <si>
-    <t>[-0.13663682341575623]</t>
-  </si>
-  <si>
-    <t>[-0.4360094964504242]</t>
-  </si>
-  <si>
-    <t>[-0.10943499207496643]</t>
-  </si>
-  <si>
-    <t>[-0.10059963911771774]</t>
-  </si>
-  <si>
-    <t>[0.30346763134002686]</t>
-  </si>
-  <si>
-    <t>[-0.051300715655088425]</t>
-  </si>
-  <si>
-    <t>[-0.1306680589914322]</t>
-  </si>
-  <si>
-    <t>[0.04895387589931488]</t>
-  </si>
-  <si>
-    <t>[-0.06714322417974472]</t>
-  </si>
-  <si>
-    <t>[0.30208030343055725]</t>
-  </si>
-  <si>
-    <t>[-0.19946981966495514]</t>
-  </si>
-  <si>
-    <t>[0.006252384278923273]</t>
-  </si>
-  <si>
-    <t>[0.13792899250984192]</t>
-  </si>
-  <si>
-    <t>[-0.6848702430725098]</t>
-  </si>
-  <si>
-    <t>[-0.03485492989420891]</t>
-  </si>
-  <si>
-    <t>[-0.03379524499177933]</t>
-  </si>
-  <si>
-    <t>[-0.16363677382469177]</t>
-  </si>
-  <si>
-    <t>[-0.3170620799064636]</t>
-  </si>
-  <si>
-    <t>[0.10326384752988815]</t>
-  </si>
-  <si>
-    <t>[-0.2480100840330124]</t>
-  </si>
-  <si>
-    <t>[0.1050628200173378]</t>
-  </si>
-  <si>
-    <t>[0.33167484402656555]</t>
-  </si>
-  <si>
-    <t>[0.27396538853645325]</t>
-  </si>
-  <si>
-    <t>[0.220300555229187]</t>
-  </si>
-  <si>
-    <t>[0.1576140820980072]</t>
-  </si>
-  <si>
-    <t>[0.06671018153429031]</t>
-  </si>
-  <si>
-    <t>[0.3378351628780365]</t>
-  </si>
-  <si>
-    <t>[0.008136373944580555]</t>
-  </si>
-  <si>
-    <t>[-0.11195017397403717]</t>
-  </si>
-  <si>
-    <t>[-0.02358574979007244]</t>
-  </si>
-  <si>
-    <t>[0.2696989178657532]</t>
-  </si>
-  <si>
-    <t>[-0.027287404984235764]</t>
-  </si>
-  <si>
-    <t>[-0.002465620869770646]</t>
-  </si>
-  <si>
-    <t>[-0.21633031964302063]</t>
-  </si>
-  <si>
-    <t>[-0.05240246653556824]</t>
-  </si>
-  <si>
-    <t>[0.32189276814460754]</t>
-  </si>
-  <si>
-    <t>[0.32223203778266907]</t>
-  </si>
-  <si>
-    <t>[-0.06175056844949722]</t>
-  </si>
-  <si>
-    <t>[-0.19148670136928558]</t>
-  </si>
-  <si>
-    <t>[0.23744086921215057]</t>
-  </si>
-  <si>
-    <t>[0.5505702495574951]</t>
-  </si>
-  <si>
-    <t>[0.009769800119102001]</t>
-  </si>
-  <si>
-    <t>[0.28250065445899963]</t>
-  </si>
-  <si>
-    <t>[0.2496337741613388]</t>
-  </si>
-  <si>
-    <t>[-0.2321971356868744]</t>
-  </si>
-  <si>
-    <t>[0.33320152759552]</t>
+    <t>[0.02936486154794693]</t>
+  </si>
+  <si>
+    <t>[0.10598994791507721]</t>
+  </si>
+  <si>
+    <t>[0.20154473185539246]</t>
+  </si>
+  <si>
+    <t>[-0.18828515708446503]</t>
+  </si>
+  <si>
+    <t>[0.22592484951019287]</t>
+  </si>
+  <si>
+    <t>[-0.06749560683965683]</t>
+  </si>
+  <si>
+    <t>[-0.1265244036912918]</t>
+  </si>
+  <si>
+    <t>[-0.06648968160152435]</t>
+  </si>
+  <si>
+    <t>[-0.1435886025428772]</t>
+  </si>
+  <si>
+    <t>[-0.10776157677173615]</t>
+  </si>
+  <si>
+    <t>[0.4732304811477661]</t>
+  </si>
+  <si>
+    <t>[-0.07678315043449402]</t>
+  </si>
+  <si>
+    <t>[0.023946518078446388]</t>
+  </si>
+  <si>
+    <t>[-0.0811394676566124]</t>
+  </si>
+  <si>
+    <t>[-0.06347981840372086]</t>
+  </si>
+  <si>
+    <t>[0.12040386348962784]</t>
+  </si>
+  <si>
+    <t>[0.17756399512290955]</t>
+  </si>
+  <si>
+    <t>[0.27793365716934204]</t>
+  </si>
+  <si>
+    <t>[-0.03174819424748421]</t>
+  </si>
+  <si>
+    <t>[-0.08454537391662598]</t>
+  </si>
+  <si>
+    <t>[-0.18036316335201263]</t>
+  </si>
+  <si>
+    <t>[-0.25089341402053833]</t>
+  </si>
+  <si>
+    <t>[0.08830010890960693]</t>
+  </si>
+  <si>
+    <t>[-0.22603332996368408]</t>
+  </si>
+  <si>
+    <t>[-0.26921382546424866]</t>
+  </si>
+  <si>
+    <t>[-0.11393357813358307]</t>
+  </si>
+  <si>
+    <t>[-0.16138361394405365]</t>
+  </si>
+  <si>
+    <t>[-0.027253763750195503]</t>
+  </si>
+  <si>
+    <t>[-0.21856634318828583]</t>
+  </si>
+  <si>
+    <t>[-0.3407730162143707]</t>
+  </si>
+  <si>
+    <t>[-0.1992262750864029]</t>
+  </si>
+  <si>
+    <t>[-0.15095935761928558]</t>
+  </si>
+  <si>
+    <t>[0.07521335780620575]</t>
+  </si>
+  <si>
+    <t>[0.29801681637763977]</t>
+  </si>
+  <si>
+    <t>[-0.021877016872167587]</t>
+  </si>
+  <si>
+    <t>[-0.10995528101921082]</t>
+  </si>
+  <si>
+    <t>[-0.13035845756530762]</t>
+  </si>
+  <si>
+    <t>[-0.10837586969137192]</t>
+  </si>
+  <si>
+    <t>[-0.10969942063093185]</t>
+  </si>
+  <si>
+    <t>[-0.08101458847522736]</t>
+  </si>
+  <si>
+    <t>[0.16059991717338562]</t>
+  </si>
+  <si>
+    <t>[-0.1336565911769867]</t>
+  </si>
+  <si>
+    <t>[-0.039019159972667694]</t>
+  </si>
+  <si>
+    <t>[-0.2447632998228073]</t>
+  </si>
+  <si>
+    <t>[0.002739550080150366]</t>
+  </si>
+  <si>
+    <t>[-0.3475075364112854]</t>
+  </si>
+  <si>
+    <t>[-0.025491636246442795]</t>
+  </si>
+  <si>
+    <t>[-0.33870789408683777]</t>
+  </si>
+  <si>
+    <t>[0.19237883388996124]</t>
+  </si>
+  <si>
+    <t>[-0.05595441907644272]</t>
+  </si>
+  <si>
+    <t>[0.088784359395504]</t>
+  </si>
+  <si>
+    <t>[-0.013908693566918373]</t>
+  </si>
+  <si>
+    <t>[-0.2215479016304016]</t>
+  </si>
+  <si>
+    <t>[0.10243995487689972]</t>
+  </si>
+  <si>
+    <t>[0.11521482467651367]</t>
+  </si>
+  <si>
+    <t>[0.03876444324851036]</t>
+  </si>
+  <si>
+    <t>[0.17843273282051086]</t>
+  </si>
+  <si>
+    <t>[0.008561895228922367]</t>
+  </si>
+  <si>
+    <t>[-0.027871493250131607]</t>
+  </si>
+  <si>
+    <t>[-0.060572341084480286]</t>
+  </si>
+  <si>
+    <t>[-0.06093326210975647]</t>
+  </si>
+  <si>
+    <t>[0.021795276552438736]</t>
+  </si>
+  <si>
+    <t>[-0.23015761375427246]</t>
+  </si>
+  <si>
+    <t>[-0.24980850517749786]</t>
+  </si>
+  <si>
+    <t>[-0.1964062750339508]</t>
+  </si>
+  <si>
+    <t>[-0.09536866843700409]</t>
+  </si>
+  <si>
+    <t>[-0.12074089050292969]</t>
+  </si>
+  <si>
+    <t>[0.40442559123039246]</t>
+  </si>
+  <si>
+    <t>[0.10157711058855057]</t>
+  </si>
+  <si>
+    <t>[0.023132100701332092]</t>
+  </si>
+  <si>
+    <t>[-0.06172921136021614]</t>
+  </si>
+  <si>
+    <t>[0.055464960634708405]</t>
+  </si>
+  <si>
+    <t>[0.12054280936717987]</t>
+  </si>
+  <si>
+    <t>[0.14297202229499817]</t>
+  </si>
+  <si>
+    <t>[-0.06621678173542023]</t>
+  </si>
+  <si>
+    <t>[-0.08871471881866455]</t>
+  </si>
+  <si>
+    <t>[0.08779246360063553]</t>
+  </si>
+  <si>
+    <t>[0.12669359147548676]</t>
+  </si>
+  <si>
+    <t>[0.3835902512073517]</t>
+  </si>
+  <si>
+    <t>[0.07410845905542374]</t>
+  </si>
+  <si>
+    <t>[-0.2500760555267334]</t>
+  </si>
+  <si>
+    <t>[0.05080118775367737]</t>
+  </si>
+  <si>
+    <t>[0.26966777443885803]</t>
+  </si>
+  <si>
+    <t>[0.13652107119560242]</t>
+  </si>
+  <si>
+    <t>[0.08827348798513412]</t>
+  </si>
+  <si>
+    <t>[-0.0028364898171275854]</t>
+  </si>
+  <si>
+    <t>[0.4959557354450226]</t>
+  </si>
+  <si>
+    <t>[-0.2511428892612457]</t>
+  </si>
+  <si>
+    <t>[-0.1739850789308548]</t>
+  </si>
+  <si>
+    <t>[-0.10050147026777267]</t>
+  </si>
+  <si>
+    <t>[0.22174368798732758]</t>
+  </si>
+  <si>
+    <t>[0.10875333100557327]</t>
+  </si>
+  <si>
+    <t>[-0.1330951750278473]</t>
+  </si>
+  <si>
+    <t>[0.20987370610237122]</t>
+  </si>
+  <si>
+    <t>[-0.5079197883605957]</t>
+  </si>
+  <si>
+    <t>[0.08588823676109314]</t>
+  </si>
+  <si>
+    <t>[0.06588390469551086]</t>
+  </si>
+  <si>
+    <t>[-0.06385795027017593]</t>
+  </si>
+  <si>
+    <t>[-0.09174089878797531]</t>
+  </si>
+  <si>
+    <t>[0.05895711109042168]</t>
+  </si>
+  <si>
+    <t>[-0.4505670368671417]</t>
+  </si>
+  <si>
+    <t>[0.2826670706272125]</t>
+  </si>
+  <si>
+    <t>[0.06712021678686142]</t>
+  </si>
+  <si>
+    <t>[-0.02040231227874756]</t>
+  </si>
+  <si>
+    <t>[0.1288682222366333]</t>
+  </si>
+  <si>
+    <t>[0.22058576345443726]</t>
+  </si>
+  <si>
+    <t>[-0.13734938204288483]</t>
+  </si>
+  <si>
+    <t>[0.1135077103972435]</t>
+  </si>
+  <si>
+    <t>[0.0910801887512207]</t>
+  </si>
+  <si>
+    <t>[-0.0796617716550827]</t>
+  </si>
+  <si>
+    <t>[0.05187215656042099]</t>
+  </si>
+  <si>
+    <t>[0.2592701315879822]</t>
+  </si>
+  <si>
+    <t>[-0.14104118943214417]</t>
+  </si>
+  <si>
+    <t>[-0.2391108125448227]</t>
+  </si>
+  <si>
+    <t>[0.25150978565216064]</t>
+  </si>
+  <si>
+    <t>[-0.23373635113239288]</t>
+  </si>
+  <si>
+    <t>[0.3591925799846649]</t>
+  </si>
+  <si>
+    <t>[0.09278446435928345]</t>
+  </si>
+  <si>
+    <t>[-0.2975665032863617]</t>
+  </si>
+  <si>
+    <t>[-0.18371370434761047]</t>
+  </si>
+  <si>
+    <t>[0.015713129192590714]</t>
+  </si>
+  <si>
+    <t>[0.0739767849445343]</t>
+  </si>
+  <si>
+    <t>[0.1561008095741272]</t>
+  </si>
+  <si>
+    <t>[0.06017964705824852]</t>
+  </si>
+  <si>
+    <t>[-0.2118631899356842]</t>
+  </si>
+  <si>
+    <t>[0.03054550662636757]</t>
+  </si>
+  <si>
+    <t>[0.11329934746026993]</t>
+  </si>
+  <si>
+    <t>[-0.006072626914829016]</t>
+  </si>
+  <si>
+    <t>[-0.016576595604419708]</t>
+  </si>
+  <si>
+    <t>[0.11741800606250763]</t>
+  </si>
+  <si>
+    <t>[0.2955993711948395]</t>
+  </si>
+  <si>
+    <t>[-0.30062124133110046]</t>
+  </si>
+  <si>
+    <t>[0.07058821618556976]</t>
+  </si>
+  <si>
+    <t>[0.064715176820755]</t>
+  </si>
+  <si>
+    <t>[0.4097737669944763]</t>
+  </si>
+  <si>
+    <t>[0.01285005547106266]</t>
+  </si>
+  <si>
+    <t>[-0.07182174175977707]</t>
+  </si>
+  <si>
+    <t>[0.11329201608896255]</t>
+  </si>
+  <si>
+    <t>[0.18390829861164093]</t>
+  </si>
+  <si>
+    <t>[-0.09888877719640732]</t>
+  </si>
+  <si>
+    <t>[-0.2615601122379303]</t>
+  </si>
+  <si>
+    <t>[0.07341276854276657]</t>
+  </si>
+  <si>
+    <t>[-0.20099478960037231]</t>
+  </si>
+  <si>
+    <t>[0.1278127282857895]</t>
+  </si>
+  <si>
+    <t>[-0.05043850839138031]</t>
+  </si>
+  <si>
+    <t>[-0.02305283211171627]</t>
+  </si>
+  <si>
+    <t>[0.043049782514572144]</t>
+  </si>
+  <si>
+    <t>[-0.16875070333480835]</t>
+  </si>
+  <si>
+    <t>[-0.16159221529960632]</t>
+  </si>
+  <si>
+    <t>[0.21301232278347015]</t>
+  </si>
+  <si>
+    <t>[0.16840508580207825]</t>
+  </si>
+  <si>
+    <t>[-0.07524289190769196]</t>
+  </si>
+  <si>
+    <t>[-0.07715931534767151]</t>
+  </si>
+  <si>
+    <t>[-0.056771036237478256]</t>
+  </si>
+  <si>
+    <t>[-0.45930853486061096]</t>
+  </si>
+  <si>
+    <t>[0.019025668501853943]</t>
+  </si>
+  <si>
+    <t>[0.10406902432441711]</t>
+  </si>
+  <si>
+    <t>[0.004791333805769682]</t>
+  </si>
+  <si>
+    <t>[-0.07029511034488678]</t>
+  </si>
+  <si>
+    <t>[0.22502973675727844]</t>
+  </si>
+  <si>
+    <t>[-0.18230301141738892]</t>
+  </si>
+  <si>
+    <t>[-0.0788508802652359]</t>
+  </si>
+  <si>
+    <t>[0.10205435752868652]</t>
+  </si>
+  <si>
+    <t>[-0.1413472443819046]</t>
+  </si>
+  <si>
+    <t>[-0.023669930174946785]</t>
+  </si>
+  <si>
+    <t>[-0.004976870026439428]</t>
+  </si>
+  <si>
+    <t>[-0.16819444298744202]</t>
+  </si>
+  <si>
+    <t>[0.18963231146335602]</t>
+  </si>
+  <si>
+    <t>[0.15472422540187836]</t>
+  </si>
+  <si>
+    <t>[-0.165556401014328]</t>
+  </si>
+  <si>
+    <t>[0.14353860914707184]</t>
+  </si>
+  <si>
+    <t>[0.12746435403823853]</t>
+  </si>
+  <si>
+    <t>[0.2079279124736786]</t>
+  </si>
+  <si>
+    <t>[0.0048078265972435474]</t>
+  </si>
+  <si>
+    <t>[0.035781413316726685]</t>
+  </si>
+  <si>
+    <t>[-0.15600590407848358]</t>
+  </si>
+  <si>
+    <t>[-0.16540445387363434]</t>
+  </si>
+  <si>
+    <t>[0.1610906720161438]</t>
+  </si>
+  <si>
+    <t>[0.025280505418777466]</t>
+  </si>
+  <si>
+    <t>[0.0633494183421135]</t>
+  </si>
+  <si>
+    <t>[0.16600458323955536]</t>
+  </si>
+  <si>
+    <t>[0.031806230545043945]</t>
+  </si>
+  <si>
+    <t>[-0.07948893308639526]</t>
+  </si>
+  <si>
+    <t>[-0.06761926412582397]</t>
+  </si>
+  <si>
+    <t>[-0.4071677327156067]</t>
+  </si>
+  <si>
+    <t>[-0.12933480739593506]</t>
+  </si>
+  <si>
+    <t>[0.31791335344314575]</t>
+  </si>
+  <si>
+    <t>[0.15567223727703094]</t>
+  </si>
+  <si>
+    <t>[-0.04599513113498688]</t>
+  </si>
+  <si>
+    <t>[0.27019649744033813]</t>
+  </si>
+  <si>
+    <t>[-0.3875789940357208]</t>
+  </si>
+  <si>
+    <t>[-0.2057412713766098]</t>
+  </si>
+  <si>
+    <t>[0.10758224874734879]</t>
+  </si>
+  <si>
+    <t>[-0.015160704962909222]</t>
+  </si>
+  <si>
+    <t>[0.29558199644088745]</t>
+  </si>
+  <si>
+    <t>[0.40172746777534485]</t>
+  </si>
+  <si>
+    <t>[0.39204141497612]</t>
+  </si>
+  <si>
+    <t>[-0.029866144061088562]</t>
+  </si>
+  <si>
+    <t>[0.018023567274212837]</t>
+  </si>
+  <si>
+    <t>[0.09185043722391129]</t>
+  </si>
+  <si>
+    <t>[-0.028546137735247612]</t>
+  </si>
+  <si>
+    <t>[-0.11982256919145584]</t>
+  </si>
+  <si>
+    <t>[0.25603288412094116]</t>
+  </si>
+  <si>
+    <t>[-0.07968050241470337]</t>
+  </si>
+  <si>
+    <t>[-0.32416674494743347]</t>
+  </si>
+  <si>
+    <t>[0.2495955228805542]</t>
+  </si>
+  <si>
+    <t>[0.1724434196949005]</t>
+  </si>
+  <si>
+    <t>[0.2786012291908264]</t>
+  </si>
+  <si>
+    <t>[0.0731944665312767]</t>
+  </si>
+  <si>
+    <t>[-0.17782507836818695]</t>
+  </si>
+  <si>
+    <t>[0.33252769708633423]</t>
+  </si>
+  <si>
+    <t>[0.17180143296718597]</t>
+  </si>
+  <si>
+    <t>[-0.07591027766466141]</t>
+  </si>
+  <si>
+    <t>[-0.24770747125148773]</t>
+  </si>
+  <si>
+    <t>[0.34390243887901306]</t>
+  </si>
+  <si>
+    <t>[-0.04075905308127403]</t>
+  </si>
+  <si>
+    <t>[-0.2932738959789276]</t>
+  </si>
+  <si>
+    <t>[0.005695783067494631]</t>
+  </si>
+  <si>
+    <t>[0.015755347907543182]</t>
+  </si>
+  <si>
+    <t>[-0.2971862256526947]</t>
+  </si>
+  <si>
+    <t>[-0.09110909700393677]</t>
+  </si>
+  <si>
+    <t>[0.03943093866109848]</t>
+  </si>
+  <si>
+    <t>[-0.010449634864926338]</t>
+  </si>
+  <si>
+    <t>[-0.26274386048316956]</t>
+  </si>
+  <si>
+    <t>[0.23284359276294708]</t>
+  </si>
+  <si>
+    <t>[-0.033859290182590485]</t>
+  </si>
+  <si>
+    <t>[-0.05210549756884575]</t>
+  </si>
+  <si>
+    <t>[0.2679239809513092]</t>
+  </si>
+  <si>
+    <t>[-0.133978933095932]</t>
+  </si>
+  <si>
+    <t>[-0.08436831831932068]</t>
+  </si>
+  <si>
+    <t>[-0.3556269705295563]</t>
+  </si>
+  <si>
+    <t>[0.030786894261837006]</t>
+  </si>
+  <si>
+    <t>[0.1705247014760971]</t>
+  </si>
+  <si>
+    <t>[-0.029513826593756676]</t>
+  </si>
+  <si>
+    <t>[-0.16122111678123474]</t>
+  </si>
+  <si>
+    <t>[-0.20114023983478546]</t>
+  </si>
+  <si>
+    <t>[0.18631865084171295]</t>
+  </si>
+  <si>
+    <t>[-0.1479232758283615]</t>
+  </si>
+  <si>
+    <t>[0.11501224339008331]</t>
+  </si>
+  <si>
+    <t>[-0.13606756925582886]</t>
+  </si>
+  <si>
+    <t>[-0.08182282745838165]</t>
+  </si>
+  <si>
+    <t>[0.17544305324554443]</t>
+  </si>
+  <si>
+    <t>[0.0583210214972496]</t>
+  </si>
+  <si>
+    <t>[-0.24002628028392792]</t>
+  </si>
+  <si>
+    <t>[0.13302838802337646]</t>
+  </si>
+  <si>
+    <t>[0.024720219895243645]</t>
+  </si>
+  <si>
+    <t>[0.16925784945487976]</t>
+  </si>
+  <si>
+    <t>[-0.17352305352687836]</t>
+  </si>
+  <si>
+    <t>[0.016151046380400658]</t>
+  </si>
+  <si>
+    <t>[0.05758365988731384]</t>
+  </si>
+  <si>
+    <t>[-0.14250102639198303]</t>
+  </si>
+  <si>
+    <t>[-0.2179148942232132]</t>
+  </si>
+  <si>
+    <t>[0.05524899438023567]</t>
+  </si>
+  <si>
+    <t>[-0.11163350939750671]</t>
+  </si>
+  <si>
+    <t>[0.03717516362667084]</t>
+  </si>
+  <si>
+    <t>[0.03374762460589409]</t>
+  </si>
+  <si>
+    <t>[-0.3319833278656006]</t>
+  </si>
+  <si>
+    <t>[0.09505119174718857]</t>
+  </si>
+  <si>
+    <t>[-0.11874493956565857]</t>
+  </si>
+  <si>
+    <t>[-0.10839536041021347]</t>
+  </si>
+  <si>
+    <t>[0.15790699422359467]</t>
+  </si>
+  <si>
+    <t>[0.38123419880867004]</t>
+  </si>
+  <si>
+    <t>[0.08783410489559174]</t>
+  </si>
+  <si>
+    <t>[-0.08685485273599625]</t>
+  </si>
+  <si>
+    <t>[0.1297924965620041]</t>
+  </si>
+  <si>
+    <t>[0.15541446208953857]</t>
+  </si>
+  <si>
+    <t>[0.09131190180778503]</t>
+  </si>
+  <si>
+    <t>[0.24471525847911835]</t>
+  </si>
+  <si>
+    <t>[0.11735951155424118]</t>
+  </si>
+  <si>
+    <t>[0.16970102488994598]</t>
+  </si>
+  <si>
+    <t>[-0.12783919274806976]</t>
+  </si>
+  <si>
+    <t>[-0.14631076157093048]</t>
+  </si>
+  <si>
+    <t>[-0.12550409138202667]</t>
+  </si>
+  <si>
+    <t>[0.10805732756853104]</t>
+  </si>
+  <si>
+    <t>[0.17741523683071136]</t>
+  </si>
+  <si>
+    <t>[-0.08120104670524597]</t>
+  </si>
+  <si>
+    <t>[0.22029075026512146]</t>
+  </si>
+  <si>
+    <t>[-0.040486905723810196]</t>
+  </si>
+  <si>
+    <t>[0.549915611743927]</t>
+  </si>
+  <si>
+    <t>[0.36284133791923523]</t>
+  </si>
+  <si>
+    <t>[0.1271558701992035]</t>
+  </si>
+  <si>
+    <t>[0.13204383850097656]</t>
+  </si>
+  <si>
+    <t>[0.12364161759614944]</t>
+  </si>
+  <si>
+    <t>[-0.09252575784921646]</t>
+  </si>
+  <si>
+    <t>[-0.1831221729516983]</t>
+  </si>
+  <si>
+    <t>[0.47818148136138916]</t>
+  </si>
+  <si>
+    <t>[-0.0706758126616478]</t>
+  </si>
+  <si>
+    <t>[-0.012180747464299202]</t>
+  </si>
+  <si>
+    <t>[-0.01923357881605625]</t>
+  </si>
+  <si>
+    <t>[0.13280005753040314]</t>
+  </si>
+  <si>
+    <t>[-0.17381376028060913]</t>
+  </si>
+  <si>
+    <t>[0.013868170790374279]</t>
+  </si>
+  <si>
+    <t>[-0.2210317701101303]</t>
+  </si>
+  <si>
+    <t>[-0.053922075778245926]</t>
+  </si>
+  <si>
+    <t>[0.017806919291615486]</t>
+  </si>
+  <si>
+    <t>[-0.18952789902687073]</t>
+  </si>
+  <si>
+    <t>[0.16483859717845917]</t>
+  </si>
+  <si>
+    <t>[0.01978093944489956]</t>
+  </si>
+  <si>
+    <t>[-0.07347994297742844]</t>
+  </si>
+  <si>
+    <t>[0.4224986135959625]</t>
+  </si>
+  <si>
+    <t>[0.0031398420687764883]</t>
+  </si>
+  <si>
+    <t>[-0.12009740620851517]</t>
+  </si>
+  <si>
+    <t>[-0.39678069949150085]</t>
+  </si>
+  <si>
+    <t>[0.18461540341377258]</t>
+  </si>
+  <si>
+    <t>[-0.06760479509830475]</t>
+  </si>
+  <si>
+    <t>[-0.22547325491905212]</t>
+  </si>
+  <si>
+    <t>[-0.06402520090341568]</t>
+  </si>
+  <si>
+    <t>[0.031295109540224075]</t>
+  </si>
+  <si>
+    <t>[0.2807013988494873]</t>
+  </si>
+  <si>
+    <t>[0.1163332387804985]</t>
+  </si>
+  <si>
+    <t>[-0.2162928730249405]</t>
+  </si>
+  <si>
+    <t>[-0.002813281025737524]</t>
+  </si>
+  <si>
+    <t>[0.38187113404273987]</t>
+  </si>
+  <si>
+    <t>[0.2111918181180954]</t>
+  </si>
+  <si>
+    <t>[0.03978275880217552]</t>
+  </si>
+  <si>
+    <t>[0.011465176939964294]</t>
+  </si>
+  <si>
+    <t>[0.3654891848564148]</t>
+  </si>
+  <si>
+    <t>[-0.001283236313611269]</t>
+  </si>
+  <si>
+    <t>[0.190208300948143]</t>
+  </si>
+  <si>
+    <t>[0.03003833070397377]</t>
+  </si>
+  <si>
+    <t>[-0.2890568673610687]</t>
+  </si>
+  <si>
+    <t>[0.14724645018577576]</t>
+  </si>
+  <si>
+    <t>[0.024199524894356728]</t>
+  </si>
+  <si>
+    <t>[0.12057619541883469]</t>
+  </si>
+  <si>
+    <t>[0.28825798630714417]</t>
+  </si>
+  <si>
+    <t>[0.006920638959854841]</t>
+  </si>
+  <si>
+    <t>[0.05871804803609848]</t>
+  </si>
+  <si>
+    <t>[0.0036949666682630777]</t>
+  </si>
+  <si>
+    <t>[-0.06972812861204147]</t>
+  </si>
+  <si>
+    <t>[0.2572513818740845]</t>
+  </si>
+  <si>
+    <t>[-0.011987759731709957]</t>
+  </si>
+  <si>
+    <t>[-0.19520717859268188]</t>
+  </si>
+  <si>
+    <t>[-0.3740997612476349]</t>
+  </si>
+  <si>
+    <t>[0.4128771424293518]</t>
+  </si>
+  <si>
+    <t>[-0.20863212645053864]</t>
+  </si>
+  <si>
+    <t>[0.016330145299434662]</t>
+  </si>
+  <si>
+    <t>[0.22158052027225494]</t>
+  </si>
+  <si>
+    <t>[-0.18383169174194336]</t>
+  </si>
+  <si>
+    <t>[-0.04625837132334709]</t>
+  </si>
+  <si>
+    <t>[-0.14225611090660095]</t>
+  </si>
+  <si>
+    <t>[0.1295931190252304]</t>
+  </si>
+  <si>
+    <t>[0.0223875492811203]</t>
+  </si>
+  <si>
+    <t>[-0.27299296855926514]</t>
+  </si>
+  <si>
+    <t>[0.21519604325294495]</t>
+  </si>
+  <si>
+    <t>[-0.052281081676483154]</t>
+  </si>
+  <si>
+    <t>[-0.24544310569763184]</t>
+  </si>
+  <si>
+    <t>[0.05071103945374489]</t>
+  </si>
+  <si>
+    <t>[0.02683723159134388]</t>
+  </si>
+  <si>
+    <t>[0.042080748826265335]</t>
+  </si>
+  <si>
+    <t>[-0.08248236030340195]</t>
+  </si>
+  <si>
+    <t>[0.11961931735277176]</t>
+  </si>
+  <si>
+    <t>[0.20918172597885132]</t>
+  </si>
+  <si>
+    <t>[0.3429008722305298]</t>
+  </si>
+  <si>
+    <t>[-0.07144562900066376]</t>
+  </si>
+  <si>
+    <t>[-0.03731730952858925]</t>
+  </si>
+  <si>
+    <t>[-0.04789555445313454]</t>
+  </si>
+  <si>
+    <t>[-0.41970670223236084]</t>
+  </si>
+  <si>
+    <t>[0.005495702847838402]</t>
+  </si>
+  <si>
+    <t>[0.20133283734321594]</t>
+  </si>
+  <si>
+    <t>[-0.3181667625904083]</t>
+  </si>
+  <si>
+    <t>[-0.3841801583766937]</t>
+  </si>
+  <si>
+    <t>[0.044263992458581924]</t>
+  </si>
+  <si>
+    <t>[0.036944106221199036]</t>
+  </si>
+  <si>
+    <t>[-0.11595205217599869]</t>
+  </si>
+  <si>
+    <t>[0.04812851548194885]</t>
+  </si>
+  <si>
+    <t>[0.04488759860396385]</t>
+  </si>
+  <si>
+    <t>[0.07576751708984375]</t>
+  </si>
+  <si>
+    <t>[-0.24739408493041992]</t>
+  </si>
+  <si>
+    <t>[-0.10185200721025467]</t>
+  </si>
+  <si>
+    <t>[-0.3012941777706146]</t>
+  </si>
+  <si>
+    <t>[-0.17024563252925873]</t>
+  </si>
+  <si>
+    <t>[0.09568221867084503]</t>
+  </si>
+  <si>
+    <t>[-0.005728147923946381]</t>
+  </si>
+  <si>
+    <t>[-0.15130841732025146]</t>
+  </si>
+  <si>
+    <t>[-0.051602303981781006]</t>
+  </si>
+  <si>
+    <t>[-0.10457755625247955]</t>
+  </si>
+  <si>
+    <t>[0.2938637435436249]</t>
+  </si>
+  <si>
+    <t>[-0.06535100936889648]</t>
+  </si>
+  <si>
+    <t>[-0.0464293546974659]</t>
+  </si>
+  <si>
+    <t>[-0.00582412863150239]</t>
+  </si>
+  <si>
+    <t>[0.08365903794765472]</t>
+  </si>
+  <si>
+    <t>[-0.09337005764245987]</t>
+  </si>
+  <si>
+    <t>[0.17694658041000366]</t>
+  </si>
+  <si>
+    <t>[0.03215239942073822]</t>
+  </si>
+  <si>
+    <t>[0.04187285527586937]</t>
+  </si>
+  <si>
+    <t>[0.2500840425491333]</t>
+  </si>
+  <si>
+    <t>[-0.24172857403755188]</t>
+  </si>
+  <si>
+    <t>[-0.08516902476549149]</t>
+  </si>
+  <si>
+    <t>[-0.16236069798469543]</t>
+  </si>
+  <si>
+    <t>[0.20312504470348358]</t>
+  </si>
+  <si>
+    <t>[0.15145786106586456]</t>
+  </si>
+  <si>
+    <t>[0.20168818533420563]</t>
+  </si>
+  <si>
+    <t>[0.09609101712703705]</t>
+  </si>
+  <si>
+    <t>[-0.11059097200632095]</t>
+  </si>
+  <si>
+    <t>[-0.03781241551041603]</t>
+  </si>
+  <si>
+    <t>[-0.28054654598236084]</t>
+  </si>
+  <si>
+    <t>[0.18917851150035858]</t>
+  </si>
+  <si>
+    <t>[0.06532640010118484]</t>
+  </si>
+  <si>
+    <t>[-0.2037070393562317]</t>
+  </si>
+  <si>
+    <t>[-0.004441204480826855]</t>
+  </si>
+  <si>
+    <t>[-0.30601397156715393]</t>
+  </si>
+  <si>
+    <t>[-0.09930456429719925]</t>
+  </si>
+  <si>
+    <t>[-0.06241445243358612]</t>
+  </si>
+  <si>
+    <t>[-0.070490263402462]</t>
+  </si>
+  <si>
+    <t>[0.2250925451517105]</t>
+  </si>
+  <si>
+    <t>[-0.16789454221725464]</t>
+  </si>
+  <si>
+    <t>[-0.17126764357089996]</t>
+  </si>
+  <si>
+    <t>[0.08151203393936157]</t>
+  </si>
+  <si>
+    <t>[0.07200230658054352]</t>
+  </si>
+  <si>
+    <t>[0.16616585850715637]</t>
+  </si>
+  <si>
+    <t>[0.35433071851730347]</t>
+  </si>
+  <si>
+    <t>[0.30644598603248596]</t>
+  </si>
+  <si>
+    <t>[-0.0732726976275444]</t>
+  </si>
+  <si>
+    <t>[-0.09510905295610428]</t>
+  </si>
+  <si>
+    <t>[0.26738622784614563]</t>
+  </si>
+  <si>
+    <t>[0.309438019990921]</t>
+  </si>
+  <si>
+    <t>[-0.05322979763150215]</t>
+  </si>
+  <si>
+    <t>[0.2977256774902344]</t>
+  </si>
+  <si>
+    <t>[-0.1195845827460289]</t>
+  </si>
+  <si>
+    <t>[-0.005799553357064724]</t>
+  </si>
+  <si>
+    <t>[0.20497648417949677]</t>
+  </si>
+  <si>
+    <t>[0.11019731312990189]</t>
+  </si>
+  <si>
+    <t>[0.07774297147989273]</t>
+  </si>
+  <si>
+    <t>[0.15365909039974213]</t>
+  </si>
+  <si>
+    <t>[0.01852482557296753]</t>
+  </si>
+  <si>
+    <t>[0.13951952755451202]</t>
+  </si>
+  <si>
+    <t>[-0.021754367277026176]</t>
+  </si>
+  <si>
+    <t>[0.031815528869628906]</t>
+  </si>
+  <si>
+    <t>[-0.15347401797771454]</t>
+  </si>
+  <si>
+    <t>[0.35517239570617676]</t>
+  </si>
+  <si>
+    <t>[-0.2110000103712082]</t>
+  </si>
+  <si>
+    <t>[0.24128605425357819]</t>
+  </si>
+  <si>
+    <t>[-0.0968199297785759]</t>
+  </si>
+  <si>
+    <t>[-0.049903206527233124]</t>
+  </si>
+  <si>
+    <t>[-0.1513257920742035]</t>
+  </si>
+  <si>
+    <t>[-0.0024623379576951265]</t>
+  </si>
+  <si>
+    <t>[-0.3475422263145447]</t>
+  </si>
+  <si>
+    <t>[0.050391629338264465]</t>
+  </si>
+  <si>
+    <t>[0.09098188579082489]</t>
+  </si>
+  <si>
+    <t>[-0.11206939816474915]</t>
+  </si>
+  <si>
+    <t>[-0.1338098645210266]</t>
+  </si>
+  <si>
+    <t>[0.06600785255432129]</t>
+  </si>
+  <si>
+    <t>[0.16484561562538147]</t>
+  </si>
+  <si>
+    <t>[-0.03248082473874092]</t>
+  </si>
+  <si>
+    <t>[0.1056700348854065]</t>
+  </si>
+  <si>
+    <t>[0.04103720560669899]</t>
+  </si>
+  <si>
+    <t>[-0.01643085479736328]</t>
+  </si>
+  <si>
+    <t>[-0.07789835333824158]</t>
+  </si>
+  <si>
+    <t>[-0.24137099087238312]</t>
+  </si>
+  <si>
+    <t>[-0.11150188744068146]</t>
+  </si>
+  <si>
+    <t>[-0.005101880524307489]</t>
+  </si>
+  <si>
+    <t>[0.03372309356927872]</t>
+  </si>
+  <si>
+    <t>[0.038310207426548004]</t>
+  </si>
+  <si>
+    <t>[0.40081578493118286]</t>
+  </si>
+  <si>
+    <t>[-0.12049779295921326]</t>
+  </si>
+  <si>
+    <t>[-0.17059485614299774]</t>
+  </si>
+  <si>
+    <t>[0.16665667295455933]</t>
+  </si>
+  <si>
+    <t>[0.41470766067504883]</t>
+  </si>
+  <si>
+    <t>[0.21328900754451752]</t>
+  </si>
+  <si>
+    <t>[-0.03508191183209419]</t>
+  </si>
+  <si>
+    <t>[0.022858915850520134]</t>
+  </si>
+  <si>
+    <t>[-0.0068773324601352215]</t>
+  </si>
+  <si>
+    <t>[0.00885078590363264]</t>
+  </si>
+  <si>
+    <t>[0.23746457695960999]</t>
+  </si>
+  <si>
+    <t>[-0.1952446699142456]</t>
+  </si>
+  <si>
+    <t>[0.12419586628675461]</t>
+  </si>
+  <si>
+    <t>[0.12458018958568573]</t>
+  </si>
+  <si>
+    <t>[-0.09249206632375717]</t>
+  </si>
+  <si>
+    <t>[0.2711958885192871]</t>
+  </si>
+  <si>
+    <t>[-0.08959153294563293]</t>
+  </si>
+  <si>
+    <t>[0.053568579256534576]</t>
+  </si>
+  <si>
+    <t>[0.09485235065221786]</t>
+  </si>
+  <si>
+    <t>[-0.4407670497894287]</t>
+  </si>
+  <si>
+    <t>[0.3492165803909302]</t>
+  </si>
+  <si>
+    <t>[0.09767325222492218]</t>
+  </si>
+  <si>
+    <t>[0.0041153887286782265]</t>
+  </si>
+  <si>
+    <t>[0.22131289541721344]</t>
+  </si>
+  <si>
+    <t>[0.10863924771547318]</t>
+  </si>
+  <si>
+    <t>[-0.33927544951438904]</t>
+  </si>
+  <si>
+    <t>[-0.10004826635122299]</t>
+  </si>
+  <si>
+    <t>[-0.18913990259170532]</t>
+  </si>
+  <si>
+    <t>[0.23233667016029358]</t>
+  </si>
+  <si>
+    <t>[-0.23142537474632263]</t>
+  </si>
+  <si>
+    <t>[0.11567331850528717]</t>
+  </si>
+  <si>
+    <t>[-0.14905612170696259]</t>
+  </si>
+  <si>
+    <t>[-0.06615898013114929]</t>
+  </si>
+  <si>
+    <t>[0.03752908483147621]</t>
+  </si>
+  <si>
+    <t>[-0.17859044671058655]</t>
+  </si>
+  <si>
+    <t>[0.008697543293237686]</t>
+  </si>
+  <si>
+    <t>[-0.06032462790608406]</t>
+  </si>
+  <si>
+    <t>[-0.24773705005645752]</t>
+  </si>
+  <si>
+    <t>[-0.3302428126335144]</t>
+  </si>
+  <si>
+    <t>[-0.0337345227599144]</t>
+  </si>
+  <si>
+    <t>[-0.15581867098808289]</t>
+  </si>
+  <si>
+    <t>[-0.07099920511245728]</t>
+  </si>
+  <si>
+    <t>[-0.26344728469848633]</t>
+  </si>
+  <si>
+    <t>[0.032567236572504044]</t>
+  </si>
+  <si>
+    <t>[0.15566496551036835]</t>
+  </si>
+  <si>
+    <t>[-0.16007092595100403]</t>
+  </si>
+  <si>
+    <t>[-0.24903367459774017]</t>
+  </si>
+  <si>
+    <t>[0.08507823944091797]</t>
+  </si>
+  <si>
+    <t>[0.2939609885215759]</t>
+  </si>
+  <si>
+    <t>[-0.22994516789913177]</t>
+  </si>
+  <si>
+    <t>[-0.24826762080192566]</t>
+  </si>
+  <si>
+    <t>[0.26247820258140564]</t>
+  </si>
+  <si>
+    <t>[0.06546826660633087]</t>
+  </si>
+  <si>
+    <t>[0.16189263761043549]</t>
+  </si>
+  <si>
+    <t>[-0.02882746420800686]</t>
+  </si>
+  <si>
+    <t>[-0.27732548117637634]</t>
+  </si>
+  <si>
+    <t>[-0.012576725333929062]</t>
+  </si>
+  <si>
+    <t>[0.1708509773015976]</t>
+  </si>
+  <si>
+    <t>[-0.31702321767807007]</t>
+  </si>
+  <si>
+    <t>[0.08123138546943665]</t>
+  </si>
+  <si>
+    <t>[0.13549117743968964]</t>
+  </si>
+  <si>
+    <t>[0.054747506976127625]</t>
+  </si>
+  <si>
+    <t>[-0.06544449180364609]</t>
+  </si>
+  <si>
+    <t>[0.24286171793937683]</t>
+  </si>
+  <si>
+    <t>[0.17286445200443268]</t>
+  </si>
+  <si>
+    <t>[0.028539668768644333]</t>
+  </si>
+  <si>
+    <t>[-0.2173868715763092]</t>
+  </si>
+  <si>
+    <t>[0.026567213237285614]</t>
+  </si>
+  <si>
+    <t>[-0.06360720843076706]</t>
+  </si>
+  <si>
+    <t>[-0.07794741541147232]</t>
+  </si>
+  <si>
+    <t>[-0.2440323382616043]</t>
+  </si>
+  <si>
+    <t>[-0.02622324414551258]</t>
+  </si>
+  <si>
+    <t>[0.09404302388429642]</t>
+  </si>
+  <si>
+    <t>[-0.17043019831180573]</t>
+  </si>
+  <si>
+    <t>[-0.02873365953564644]</t>
+  </si>
+  <si>
+    <t>[0.13091255724430084]</t>
+  </si>
+  <si>
+    <t>[0.1864507794380188]</t>
+  </si>
+  <si>
+    <t>[-0.17584481835365295]</t>
+  </si>
+  <si>
+    <t>[-0.05032528191804886]</t>
+  </si>
+  <si>
+    <t>[-0.38826194405555725]</t>
+  </si>
+  <si>
+    <t>[0.17713157832622528]</t>
+  </si>
+  <si>
+    <t>[0.34112754464149475]</t>
+  </si>
+  <si>
+    <t>[-0.19023913145065308]</t>
+  </si>
+  <si>
+    <t>[0.21942627429962158]</t>
+  </si>
+  <si>
+    <t>[0.11110305041074753]</t>
+  </si>
+  <si>
+    <t>[0.0029495088383555412]</t>
+  </si>
+  <si>
+    <t>[0.18420450389385223]</t>
+  </si>
+  <si>
+    <t>[-0.19206015765666962]</t>
+  </si>
+  <si>
+    <t>[0.0455862320959568]</t>
+  </si>
+  <si>
+    <t>[-0.23781095445156097]</t>
+  </si>
+  <si>
+    <t>[-0.022122208029031754]</t>
+  </si>
+  <si>
+    <t>[-0.019704801961779594]</t>
+  </si>
+  <si>
+    <t>[0.19937685132026672]</t>
+  </si>
+  <si>
+    <t>[-0.13566133379936218]</t>
+  </si>
+  <si>
+    <t>[-0.07675987482070923]</t>
+  </si>
+  <si>
+    <t>[0.049687668681144714]</t>
+  </si>
+  <si>
+    <t>[0.08588871359825134]</t>
+  </si>
+  <si>
+    <t>[-0.2528536915779114]</t>
+  </si>
+  <si>
+    <t>[-0.08038916438817978]</t>
+  </si>
+  <si>
+    <t>[-0.058272648602724075]</t>
+  </si>
+  <si>
+    <t>[-0.05355134978890419]</t>
+  </si>
+  <si>
+    <t>[0.05055819824337959]</t>
+  </si>
+  <si>
+    <t>[0.22689391672611237]</t>
+  </si>
+  <si>
+    <t>[0.045451898127794266]</t>
+  </si>
+  <si>
+    <t>[0.1946515291929245]</t>
+  </si>
+  <si>
+    <t>[-0.1452171355485916]</t>
+  </si>
+  <si>
+    <t>[0.035040173679590225]</t>
+  </si>
+  <si>
+    <t>[0.028261573985219002]</t>
+  </si>
+  <si>
+    <t>[0.022172978147864342]</t>
+  </si>
+  <si>
+    <t>[0.029317280277609825]</t>
+  </si>
+  <si>
+    <t>[0.3591095507144928]</t>
+  </si>
+  <si>
+    <t>[0.1103103756904602]</t>
+  </si>
+  <si>
+    <t>[0.0836794376373291]</t>
+  </si>
+  <si>
+    <t>[0.1816413700580597]</t>
+  </si>
+  <si>
+    <t>[0.18353793025016785]</t>
+  </si>
+  <si>
+    <t>[-0.05585353076457977]</t>
+  </si>
+  <si>
+    <t>[0.2529553472995758]</t>
+  </si>
+  <si>
+    <t>[-0.04004184901714325]</t>
+  </si>
+  <si>
+    <t>[0.17854785919189453]</t>
+  </si>
+  <si>
+    <t>[-0.03692273050546646]</t>
+  </si>
+  <si>
+    <t>[0.04183005169034004]</t>
+  </si>
+  <si>
+    <t>[-0.3670559823513031]</t>
+  </si>
+  <si>
+    <t>[0.10162503272294998]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -919,76 +3511,148 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[0.2521105706691742]</t>
-  </si>
-  <si>
-    <t>[1.2379364967346191]</t>
-  </si>
-  <si>
-    <t>[0.25239184498786926]</t>
-  </si>
-  <si>
-    <t>[-0.12241654843091965]</t>
-  </si>
-  <si>
-    <t>[0.2578243017196655]</t>
-  </si>
-  <si>
-    <t>[1.215833067893982]</t>
-  </si>
-  <si>
-    <t>[-0.25648584961891174]</t>
-  </si>
-  <si>
-    <t>[-0.0883188545703888]</t>
-  </si>
-  <si>
-    <t>[0.1860494315624237]</t>
-  </si>
-  <si>
-    <t>[1.1202329397201538]</t>
-  </si>
-  <si>
-    <t>[-0.23942801356315613]</t>
-  </si>
-  <si>
-    <t>[-0.10733449459075928]</t>
-  </si>
-  <si>
-    <t>[-0.09544041752815247]</t>
-  </si>
-  <si>
-    <t>[1.0472908020019531]</t>
-  </si>
-  <si>
-    <t>[-0.1516771763563156]</t>
-  </si>
-  <si>
-    <t>[0.10012020170688629]</t>
-  </si>
-  <si>
-    <t>[-0.1832927018404007]</t>
-  </si>
-  <si>
-    <t>[1.0691176652908325]</t>
-  </si>
-  <si>
-    <t>[0.12498459219932556]</t>
-  </si>
-  <si>
-    <t>[0.11012106388807297]</t>
-  </si>
-  <si>
-    <t>[0.17272695899009705]</t>
-  </si>
-  <si>
-    <t>[1.225347638130188]</t>
-  </si>
-  <si>
-    <t>[-0.26767927408218384]</t>
-  </si>
-  <si>
-    <t>[-0.1968659907579422]</t>
+    <t>[-0.17882715165615082]</t>
+  </si>
+  <si>
+    <t>[1.1558208465576172]</t>
+  </si>
+  <si>
+    <t>[-0.185431569814682]</t>
+  </si>
+  <si>
+    <t>[-0.09300796687602997]</t>
+  </si>
+  <si>
+    <t>[-0.19166618585586548]</t>
+  </si>
+  <si>
+    <t>[1.1755467653274536]</t>
+  </si>
+  <si>
+    <t>[0.19328510761260986]</t>
+  </si>
+  <si>
+    <t>[-0.08665023744106293]</t>
+  </si>
+  <si>
+    <t>[0.1914125382900238]</t>
+  </si>
+  <si>
+    <t>[1.1160200834274292]</t>
+  </si>
+  <si>
+    <t>[-0.15654610097408295]</t>
+  </si>
+  <si>
+    <t>[-0.04717148467898369]</t>
+  </si>
+  <si>
+    <t>[0.16964565217494965]</t>
+  </si>
+  <si>
+    <t>[1.1508125066757202]</t>
+  </si>
+  <si>
+    <t>[-0.17655497789382935]</t>
+  </si>
+  <si>
+    <t>[-0.08646820485591888]</t>
+  </si>
+  <si>
+    <t>[-0.19849197566509247]</t>
+  </si>
+  <si>
+    <t>[1.1136491298675537]</t>
+  </si>
+  <si>
+    <t>[-0.1813456267118454]</t>
+  </si>
+  <si>
+    <t>[-0.08448775857686996]</t>
+  </si>
+  <si>
+    <t>[0.18760578334331512]</t>
+  </si>
+  <si>
+    <t>[1.1833500862121582]</t>
+  </si>
+  <si>
+    <t>[-0.18753033876419067]</t>
+  </si>
+  <si>
+    <t>[-0.09565316140651703]</t>
+  </si>
+  <si>
+    <t>[0.1841467171907425]</t>
+  </si>
+  <si>
+    <t>[1.1636549234390259]</t>
+  </si>
+  <si>
+    <t>[0.18809747695922852]</t>
+  </si>
+  <si>
+    <t>[0.09742030501365662]</t>
+  </si>
+  <si>
+    <t>[0.15501205623149872]</t>
+  </si>
+  <si>
+    <t>[1.11750066280365]</t>
+  </si>
+  <si>
+    <t>[0.1543719470500946]</t>
+  </si>
+  <si>
+    <t>[-0.05976034700870514]</t>
+  </si>
+  <si>
+    <t>[-0.1881379336118698]</t>
+  </si>
+  <si>
+    <t>[1.177517294883728]</t>
+  </si>
+  <si>
+    <t>[0.19292713701725006]</t>
+  </si>
+  <si>
+    <t>[-0.0674678236246109]</t>
+  </si>
+  <si>
+    <t>[0.2056933045387268]</t>
+  </si>
+  <si>
+    <t>[1.1920995712280273]</t>
+  </si>
+  <si>
+    <t>[0.2046205699443817]</t>
+  </si>
+  <si>
+    <t>[0.14688760042190552]</t>
+  </si>
+  <si>
+    <t>[-0.1912601888179779]</t>
+  </si>
+  <si>
+    <t>[1.1865580081939697]</t>
+  </si>
+  <si>
+    <t>[0.19740745425224304]</t>
+  </si>
+  <si>
+    <t>[-0.10303723067045212]</t>
+  </si>
+  <si>
+    <t>[-0.20218364894390106]</t>
+  </si>
+  <si>
+    <t>[1.1932545900344849]</t>
+  </si>
+  <si>
+    <t>[-0.20101803541183472]</t>
+  </si>
+  <si>
+    <t>[0.16866275668144226]</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +4001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,6 +4633,1842 @@
       </c>
       <c r="E37" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" t="s">
+        <v>345</v>
+      </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" t="s">
+        <v>373</v>
+      </c>
+      <c r="D94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="E101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>412</v>
+      </c>
+      <c r="C104" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>416</v>
+      </c>
+      <c r="C105" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" t="s">
+        <v>429</v>
+      </c>
+      <c r="D108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>432</v>
+      </c>
+      <c r="C109" t="s">
+        <v>433</v>
+      </c>
+      <c r="D109" t="s">
+        <v>434</v>
+      </c>
+      <c r="E109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>436</v>
+      </c>
+      <c r="C110" t="s">
+        <v>437</v>
+      </c>
+      <c r="D110" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" t="s">
+        <v>445</v>
+      </c>
+      <c r="D112" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" t="s">
+        <v>458</v>
+      </c>
+      <c r="E115" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" t="s">
+        <v>477</v>
+      </c>
+      <c r="D120" t="s">
+        <v>478</v>
+      </c>
+      <c r="E120" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>480</v>
+      </c>
+      <c r="C121" t="s">
+        <v>481</v>
+      </c>
+      <c r="D121" t="s">
+        <v>482</v>
+      </c>
+      <c r="E121" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>488</v>
+      </c>
+      <c r="C123" t="s">
+        <v>489</v>
+      </c>
+      <c r="D123" t="s">
+        <v>490</v>
+      </c>
+      <c r="E123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>492</v>
+      </c>
+      <c r="C124" t="s">
+        <v>493</v>
+      </c>
+      <c r="D124" t="s">
+        <v>494</v>
+      </c>
+      <c r="E124" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>496</v>
+      </c>
+      <c r="C125" t="s">
+        <v>497</v>
+      </c>
+      <c r="D125" t="s">
+        <v>498</v>
+      </c>
+      <c r="E125" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>500</v>
+      </c>
+      <c r="C126" t="s">
+        <v>501</v>
+      </c>
+      <c r="D126" t="s">
+        <v>502</v>
+      </c>
+      <c r="E126" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s">
+        <v>506</v>
+      </c>
+      <c r="E127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" t="s">
+        <v>517</v>
+      </c>
+      <c r="D130" t="s">
+        <v>518</v>
+      </c>
+      <c r="E130" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>520</v>
+      </c>
+      <c r="C131" t="s">
+        <v>521</v>
+      </c>
+      <c r="D131" t="s">
+        <v>522</v>
+      </c>
+      <c r="E131" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>524</v>
+      </c>
+      <c r="C132" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" t="s">
+        <v>526</v>
+      </c>
+      <c r="E132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>532</v>
+      </c>
+      <c r="C134" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" t="s">
+        <v>534</v>
+      </c>
+      <c r="E134" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>536</v>
+      </c>
+      <c r="C135" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" t="s">
+        <v>538</v>
+      </c>
+      <c r="E135" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" t="s">
+        <v>541</v>
+      </c>
+      <c r="D136" t="s">
+        <v>542</v>
+      </c>
+      <c r="E136" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>544</v>
+      </c>
+      <c r="C137" t="s">
+        <v>545</v>
+      </c>
+      <c r="D137" t="s">
+        <v>546</v>
+      </c>
+      <c r="E137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>548</v>
+      </c>
+      <c r="C138" t="s">
+        <v>549</v>
+      </c>
+      <c r="D138" t="s">
+        <v>550</v>
+      </c>
+      <c r="E138" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" t="s">
+        <v>553</v>
+      </c>
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+      <c r="E139" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>556</v>
+      </c>
+      <c r="C140" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141" t="s">
+        <v>561</v>
+      </c>
+      <c r="D141" t="s">
+        <v>562</v>
+      </c>
+      <c r="E141" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142" t="s">
+        <v>565</v>
+      </c>
+      <c r="D142" t="s">
+        <v>566</v>
+      </c>
+      <c r="E142" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>568</v>
+      </c>
+      <c r="C143" t="s">
+        <v>569</v>
+      </c>
+      <c r="D143" t="s">
+        <v>570</v>
+      </c>
+      <c r="E143" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" t="s">
+        <v>573</v>
+      </c>
+      <c r="D144" t="s">
+        <v>574</v>
+      </c>
+      <c r="E144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145" t="s">
+        <v>577</v>
+      </c>
+      <c r="D145" t="s">
+        <v>578</v>
+      </c>
+      <c r="E145" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +6482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,16 +6492,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>580</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>581</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2009,16 +6509,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>585</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>586</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2026,16 +6526,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>588</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>590</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2043,16 +6543,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>593</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>594</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2060,16 +6560,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>597</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2077,16 +6577,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>602</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2094,16 +6594,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>604</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>606</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2111,16 +6611,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>609</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2128,16 +6628,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>614</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2145,16 +6645,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>617</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2162,16 +6662,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>620</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>621</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>622</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2179,16 +6679,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>624</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>625</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>626</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2196,16 +6696,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>628</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>629</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>630</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2213,16 +6713,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>632</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>633</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2230,16 +6730,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>637</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>638</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2247,16 +6747,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>640</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>641</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>642</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2264,16 +6764,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>644</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>645</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>646</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2281,16 +6781,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>649</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>650</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2298,16 +6798,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>652</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>653</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>654</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2315,16 +6815,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>656</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>657</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>658</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2332,16 +6832,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>660</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>661</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>662</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2349,16 +6849,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2366,16 +6866,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>669</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>670</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2383,16 +6883,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>672</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>674</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2400,16 +6900,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>676</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>678</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2417,16 +6917,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>680</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>681</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>682</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2434,16 +6934,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>684</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>685</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>686</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2451,16 +6951,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>688</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>689</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>690</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2468,16 +6968,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>693</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>694</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2485,16 +6985,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>696</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>697</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>698</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2502,16 +7002,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>700</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>701</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>702</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2519,16 +7019,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>704</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>705</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>706</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2536,16 +7036,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>708</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>709</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>710</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2553,16 +7053,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>712</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>713</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>714</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2570,16 +7070,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>716</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>717</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>718</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2587,16 +7087,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>720</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>721</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>722</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2604,16 +7104,1852 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>724</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>725</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>726</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C38" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" t="s">
+        <v>730</v>
+      </c>
+      <c r="E38" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>732</v>
+      </c>
+      <c r="C39" t="s">
+        <v>733</v>
+      </c>
+      <c r="D39" t="s">
+        <v>734</v>
+      </c>
+      <c r="E39" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>736</v>
+      </c>
+      <c r="C40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D40" t="s">
+        <v>738</v>
+      </c>
+      <c r="E40" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>740</v>
+      </c>
+      <c r="C41" t="s">
+        <v>741</v>
+      </c>
+      <c r="D41" t="s">
+        <v>742</v>
+      </c>
+      <c r="E41" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C42" t="s">
+        <v>745</v>
+      </c>
+      <c r="D42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E42" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>748</v>
+      </c>
+      <c r="C43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" t="s">
+        <v>750</v>
+      </c>
+      <c r="E43" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>752</v>
+      </c>
+      <c r="C44" t="s">
+        <v>753</v>
+      </c>
+      <c r="D44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E44" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>760</v>
+      </c>
+      <c r="C46" t="s">
+        <v>761</v>
+      </c>
+      <c r="D46" t="s">
+        <v>762</v>
+      </c>
+      <c r="E46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>764</v>
+      </c>
+      <c r="C47" t="s">
+        <v>765</v>
+      </c>
+      <c r="D47" t="s">
+        <v>766</v>
+      </c>
+      <c r="E47" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>768</v>
+      </c>
+      <c r="C48" t="s">
+        <v>769</v>
+      </c>
+      <c r="D48" t="s">
+        <v>770</v>
+      </c>
+      <c r="E48" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>772</v>
+      </c>
+      <c r="C49" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" t="s">
+        <v>774</v>
+      </c>
+      <c r="E49" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>776</v>
+      </c>
+      <c r="C50" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50" t="s">
+        <v>778</v>
+      </c>
+      <c r="E50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>780</v>
+      </c>
+      <c r="C51" t="s">
+        <v>781</v>
+      </c>
+      <c r="D51" t="s">
+        <v>782</v>
+      </c>
+      <c r="E51" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>784</v>
+      </c>
+      <c r="C52" t="s">
+        <v>785</v>
+      </c>
+      <c r="D52" t="s">
+        <v>786</v>
+      </c>
+      <c r="E52" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>788</v>
+      </c>
+      <c r="C53" t="s">
+        <v>789</v>
+      </c>
+      <c r="D53" t="s">
+        <v>790</v>
+      </c>
+      <c r="E53" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>792</v>
+      </c>
+      <c r="C54" t="s">
+        <v>793</v>
+      </c>
+      <c r="D54" t="s">
+        <v>794</v>
+      </c>
+      <c r="E54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>796</v>
+      </c>
+      <c r="C55" t="s">
+        <v>797</v>
+      </c>
+      <c r="D55" t="s">
+        <v>798</v>
+      </c>
+      <c r="E55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56" t="s">
+        <v>801</v>
+      </c>
+      <c r="D56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E56" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>804</v>
+      </c>
+      <c r="C57" t="s">
+        <v>805</v>
+      </c>
+      <c r="D57" t="s">
+        <v>806</v>
+      </c>
+      <c r="E57" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>808</v>
+      </c>
+      <c r="C58" t="s">
+        <v>809</v>
+      </c>
+      <c r="D58" t="s">
+        <v>810</v>
+      </c>
+      <c r="E58" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>813</v>
+      </c>
+      <c r="D59" t="s">
+        <v>814</v>
+      </c>
+      <c r="E59" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>816</v>
+      </c>
+      <c r="C60" t="s">
+        <v>817</v>
+      </c>
+      <c r="D60" t="s">
+        <v>818</v>
+      </c>
+      <c r="E60" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>820</v>
+      </c>
+      <c r="C61" t="s">
+        <v>821</v>
+      </c>
+      <c r="D61" t="s">
+        <v>822</v>
+      </c>
+      <c r="E61" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>824</v>
+      </c>
+      <c r="C62" t="s">
+        <v>825</v>
+      </c>
+      <c r="D62" t="s">
+        <v>826</v>
+      </c>
+      <c r="E62" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>828</v>
+      </c>
+      <c r="C63" t="s">
+        <v>829</v>
+      </c>
+      <c r="D63" t="s">
+        <v>830</v>
+      </c>
+      <c r="E63" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>832</v>
+      </c>
+      <c r="C64" t="s">
+        <v>833</v>
+      </c>
+      <c r="D64" t="s">
+        <v>834</v>
+      </c>
+      <c r="E64" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>836</v>
+      </c>
+      <c r="C65" t="s">
+        <v>837</v>
+      </c>
+      <c r="D65" t="s">
+        <v>838</v>
+      </c>
+      <c r="E65" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" t="s">
+        <v>841</v>
+      </c>
+      <c r="D66" t="s">
+        <v>842</v>
+      </c>
+      <c r="E66" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>844</v>
+      </c>
+      <c r="C67" t="s">
+        <v>845</v>
+      </c>
+      <c r="D67" t="s">
+        <v>846</v>
+      </c>
+      <c r="E67" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>848</v>
+      </c>
+      <c r="C68" t="s">
+        <v>849</v>
+      </c>
+      <c r="D68" t="s">
+        <v>850</v>
+      </c>
+      <c r="E68" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>852</v>
+      </c>
+      <c r="C69" t="s">
+        <v>853</v>
+      </c>
+      <c r="D69" t="s">
+        <v>854</v>
+      </c>
+      <c r="E69" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>856</v>
+      </c>
+      <c r="C70" t="s">
+        <v>857</v>
+      </c>
+      <c r="D70" t="s">
+        <v>858</v>
+      </c>
+      <c r="E70" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>860</v>
+      </c>
+      <c r="C71" t="s">
+        <v>861</v>
+      </c>
+      <c r="D71" t="s">
+        <v>862</v>
+      </c>
+      <c r="E71" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>864</v>
+      </c>
+      <c r="C72" t="s">
+        <v>865</v>
+      </c>
+      <c r="D72" t="s">
+        <v>866</v>
+      </c>
+      <c r="E72" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>868</v>
+      </c>
+      <c r="C73" t="s">
+        <v>869</v>
+      </c>
+      <c r="D73" t="s">
+        <v>870</v>
+      </c>
+      <c r="E73" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>872</v>
+      </c>
+      <c r="C74" t="s">
+        <v>873</v>
+      </c>
+      <c r="D74" t="s">
+        <v>874</v>
+      </c>
+      <c r="E74" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>876</v>
+      </c>
+      <c r="C75" t="s">
+        <v>877</v>
+      </c>
+      <c r="D75" t="s">
+        <v>878</v>
+      </c>
+      <c r="E75" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>880</v>
+      </c>
+      <c r="C76" t="s">
+        <v>881</v>
+      </c>
+      <c r="D76" t="s">
+        <v>882</v>
+      </c>
+      <c r="E76" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>884</v>
+      </c>
+      <c r="C77" t="s">
+        <v>885</v>
+      </c>
+      <c r="D77" t="s">
+        <v>886</v>
+      </c>
+      <c r="E77" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>888</v>
+      </c>
+      <c r="C78" t="s">
+        <v>889</v>
+      </c>
+      <c r="D78" t="s">
+        <v>890</v>
+      </c>
+      <c r="E78" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>892</v>
+      </c>
+      <c r="C79" t="s">
+        <v>893</v>
+      </c>
+      <c r="D79" t="s">
+        <v>894</v>
+      </c>
+      <c r="E79" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>896</v>
+      </c>
+      <c r="C80" t="s">
+        <v>897</v>
+      </c>
+      <c r="D80" t="s">
+        <v>898</v>
+      </c>
+      <c r="E80" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>900</v>
+      </c>
+      <c r="C81" t="s">
+        <v>901</v>
+      </c>
+      <c r="D81" t="s">
+        <v>902</v>
+      </c>
+      <c r="E81" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>904</v>
+      </c>
+      <c r="C82" t="s">
+        <v>905</v>
+      </c>
+      <c r="D82" t="s">
+        <v>906</v>
+      </c>
+      <c r="E82" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>908</v>
+      </c>
+      <c r="C83" t="s">
+        <v>909</v>
+      </c>
+      <c r="D83" t="s">
+        <v>910</v>
+      </c>
+      <c r="E83" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>912</v>
+      </c>
+      <c r="C84" t="s">
+        <v>913</v>
+      </c>
+      <c r="D84" t="s">
+        <v>914</v>
+      </c>
+      <c r="E84" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>916</v>
+      </c>
+      <c r="C85" t="s">
+        <v>917</v>
+      </c>
+      <c r="D85" t="s">
+        <v>918</v>
+      </c>
+      <c r="E85" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>920</v>
+      </c>
+      <c r="C86" t="s">
+        <v>921</v>
+      </c>
+      <c r="D86" t="s">
+        <v>922</v>
+      </c>
+      <c r="E86" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>924</v>
+      </c>
+      <c r="C87" t="s">
+        <v>925</v>
+      </c>
+      <c r="D87" t="s">
+        <v>926</v>
+      </c>
+      <c r="E87" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>928</v>
+      </c>
+      <c r="C88" t="s">
+        <v>929</v>
+      </c>
+      <c r="D88" t="s">
+        <v>930</v>
+      </c>
+      <c r="E88" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>932</v>
+      </c>
+      <c r="C89" t="s">
+        <v>933</v>
+      </c>
+      <c r="D89" t="s">
+        <v>934</v>
+      </c>
+      <c r="E89" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>936</v>
+      </c>
+      <c r="C90" t="s">
+        <v>937</v>
+      </c>
+      <c r="D90" t="s">
+        <v>938</v>
+      </c>
+      <c r="E90" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>940</v>
+      </c>
+      <c r="C91" t="s">
+        <v>941</v>
+      </c>
+      <c r="D91" t="s">
+        <v>942</v>
+      </c>
+      <c r="E91" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>944</v>
+      </c>
+      <c r="C92" t="s">
+        <v>945</v>
+      </c>
+      <c r="D92" t="s">
+        <v>946</v>
+      </c>
+      <c r="E92" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>948</v>
+      </c>
+      <c r="C93" t="s">
+        <v>949</v>
+      </c>
+      <c r="D93" t="s">
+        <v>950</v>
+      </c>
+      <c r="E93" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>952</v>
+      </c>
+      <c r="C94" t="s">
+        <v>953</v>
+      </c>
+      <c r="D94" t="s">
+        <v>954</v>
+      </c>
+      <c r="E94" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>956</v>
+      </c>
+      <c r="C95" t="s">
+        <v>957</v>
+      </c>
+      <c r="D95" t="s">
+        <v>958</v>
+      </c>
+      <c r="E95" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>960</v>
+      </c>
+      <c r="C96" t="s">
+        <v>961</v>
+      </c>
+      <c r="D96" t="s">
+        <v>962</v>
+      </c>
+      <c r="E96" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C97" t="s">
+        <v>965</v>
+      </c>
+      <c r="D97" t="s">
+        <v>966</v>
+      </c>
+      <c r="E97" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>968</v>
+      </c>
+      <c r="C98" t="s">
+        <v>969</v>
+      </c>
+      <c r="D98" t="s">
+        <v>970</v>
+      </c>
+      <c r="E98" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>972</v>
+      </c>
+      <c r="C99" t="s">
+        <v>973</v>
+      </c>
+      <c r="D99" t="s">
+        <v>974</v>
+      </c>
+      <c r="E99" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>976</v>
+      </c>
+      <c r="C100" t="s">
+        <v>977</v>
+      </c>
+      <c r="D100" t="s">
+        <v>978</v>
+      </c>
+      <c r="E100" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>980</v>
+      </c>
+      <c r="C101" t="s">
+        <v>981</v>
+      </c>
+      <c r="D101" t="s">
+        <v>982</v>
+      </c>
+      <c r="E101" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>984</v>
+      </c>
+      <c r="C102" t="s">
+        <v>985</v>
+      </c>
+      <c r="D102" t="s">
+        <v>986</v>
+      </c>
+      <c r="E102" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>988</v>
+      </c>
+      <c r="C103" t="s">
+        <v>989</v>
+      </c>
+      <c r="D103" t="s">
+        <v>990</v>
+      </c>
+      <c r="E103" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>992</v>
+      </c>
+      <c r="C104" t="s">
+        <v>993</v>
+      </c>
+      <c r="D104" t="s">
+        <v>994</v>
+      </c>
+      <c r="E104" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>996</v>
+      </c>
+      <c r="C105" t="s">
+        <v>997</v>
+      </c>
+      <c r="D105" t="s">
+        <v>998</v>
+      </c>
+      <c r="E105" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +8963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,16 +8973,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>1160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>1161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>1162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2654,16 +8990,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>1165</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>1166</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2671,16 +9007,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>1168</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>1169</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>1170</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2688,16 +9024,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>1172</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>1173</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>1174</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2705,16 +9041,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>1176</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>1177</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>1178</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2722,16 +9058,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>1180</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>1181</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>1182</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2739,16 +9075,118 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>1184</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>1185</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>1186</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
